--- a/08.09/Функции для проверки условий.xlsx
+++ b/08.09/Функции для проверки условий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\Desktop\335\08.09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662E05DC-0FF4-41AA-BAEA-0DFF5F777216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999F1252-B57C-4CCB-B8AB-677B7262F3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="17" activeTab="21" xr2:uid="{443925E8-FABF-4DBF-A726-85F519EF78A9}"/>
   </bookViews>
@@ -30,15 +30,15 @@
     <sheet name="Сумма за дату" sheetId="15" r:id="rId15"/>
     <sheet name="Расчет ВВП" sheetId="17" r:id="rId16"/>
     <sheet name="Сумма запромежуток дат" sheetId="18" r:id="rId17"/>
-    <sheet name="СЧЕТЕСЛИ" sheetId="19" r:id="rId18"/>
-    <sheet name="Подстановочные символы" sheetId="21" r:id="rId19"/>
-    <sheet name="СЧЕТЕСЛИМН" sheetId="20" r:id="rId20"/>
-    <sheet name="СРЗНАЧЕСЛИ" sheetId="22" r:id="rId21"/>
+    <sheet name="Подстановочные символы" sheetId="21" r:id="rId18"/>
+    <sheet name="СЧЕТЕСЛИМН" sheetId="20" r:id="rId19"/>
+    <sheet name="СРЗНАЧЕСЛИ" sheetId="22" r:id="rId20"/>
+    <sheet name="СЧЕТЕСЛИ" sheetId="19" r:id="rId21"/>
     <sheet name="СРЗНАЧЕСЛИМН" sheetId="23" r:id="rId22"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Расчет ВВП'!$B$2:$D$212</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">СРЗНАЧЕСЛИ!$B$2:$F$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">СРЗНАЧЕСЛИ!$B$2:$F$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -915,10 +915,10 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-419]mmmm\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
-    <numFmt numFmtId="167" formatCode="[$$-409]#,##0"/>
-    <numFmt numFmtId="169" formatCode="dddd\,\ mmmm\-yyyy\ \/\ hh:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="172" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="173" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="[$$-409]#,##0"/>
+    <numFmt numFmtId="167" formatCode="dddd\,\ mmmm\-yyyy\ \/\ hh:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="169" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1236,7 +1236,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1305,6 +1305,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="47" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1320,36 +1343,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="47" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1760,18 +1758,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="2" spans="1:10" ht="93" x14ac:dyDescent="0.7">
       <c r="B2" s="22" t="s">
@@ -2088,17 +2086,17 @@
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.7">
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3230,10 +3228,10 @@
     <row r="15" spans="2:6" x14ac:dyDescent="0.7">
       <c r="B15" s="42"/>
       <c r="C15" s="39"/>
-      <c r="E15" s="50">
+      <c r="E15" s="45">
         <v>44951</v>
       </c>
-      <c r="F15" s="50">
+      <c r="F15" s="45">
         <v>45177.456842</v>
       </c>
     </row>
@@ -3303,7 +3301,7 @@
       <c r="C3">
         <v>2000</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="44">
         <v>399594</v>
       </c>
       <c r="F3" t="s">
@@ -3320,13 +3318,13 @@
       <c r="C4">
         <v>2001</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="44">
         <v>377207</v>
       </c>
       <c r="F4" t="s">
         <v>169</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="46">
         <v>2004</v>
       </c>
     </row>
@@ -3337,13 +3335,13 @@
       <c r="C5">
         <v>2002</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="44">
         <v>423676</v>
       </c>
       <c r="F5" t="s">
         <v>170</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="46">
         <v>2006</v>
       </c>
     </row>
@@ -3354,7 +3352,7 @@
       <c r="C6">
         <v>2003</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="44">
         <v>539162</v>
       </c>
     </row>
@@ -3365,7 +3363,7 @@
       <c r="C7">
         <v>2004</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="44">
         <v>654968</v>
       </c>
       <c r="F7" t="s">
@@ -3383,7 +3381,7 @@
       <c r="C8">
         <v>2005</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="44">
         <v>730729</v>
       </c>
       <c r="F8" t="s">
@@ -3401,7 +3399,7 @@
       <c r="C9">
         <v>2006</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="44">
         <v>777933</v>
       </c>
     </row>
@@ -3412,7 +3410,7 @@
       <c r="C10">
         <v>2007</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="44">
         <v>945364</v>
       </c>
     </row>
@@ -3423,7 +3421,7 @@
       <c r="C11">
         <v>2008</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="44">
         <v>1051261</v>
       </c>
     </row>
@@ -3434,7 +3432,7 @@
       <c r="C12">
         <v>2009</v>
       </c>
-      <c r="D12" s="49">
+      <c r="D12" s="44">
         <v>993349</v>
       </c>
     </row>
@@ -3445,7 +3443,7 @@
       <c r="C13">
         <v>2000</v>
       </c>
-      <c r="D13" s="49">
+      <c r="D13" s="44">
         <v>233354</v>
       </c>
     </row>
@@ -3456,7 +3454,7 @@
       <c r="C14">
         <v>2001</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14" s="44">
         <v>232686</v>
       </c>
     </row>
@@ -3467,7 +3465,7 @@
       <c r="C15">
         <v>2002</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D15" s="44">
         <v>253689</v>
       </c>
     </row>
@@ -3478,7 +3476,7 @@
       <c r="C16">
         <v>2003</v>
       </c>
-      <c r="D16" s="49">
+      <c r="D16" s="44">
         <v>312285</v>
       </c>
     </row>
@@ -3489,7 +3487,7 @@
       <c r="C17">
         <v>2004</v>
       </c>
-      <c r="D17" s="49">
+      <c r="D17" s="44">
         <v>362160</v>
       </c>
     </row>
@@ -3500,7 +3498,7 @@
       <c r="C18">
         <v>2005</v>
       </c>
-      <c r="D18" s="49">
+      <c r="D18" s="44">
         <v>378006</v>
       </c>
     </row>
@@ -3511,7 +3509,7 @@
       <c r="C19">
         <v>2006</v>
       </c>
-      <c r="D19" s="49">
+      <c r="D19" s="44">
         <v>400337</v>
       </c>
       <c r="E19" s="27"/>
@@ -3523,7 +3521,7 @@
       <c r="C20">
         <v>2007</v>
       </c>
-      <c r="D20" s="49">
+      <c r="D20" s="44">
         <v>460280</v>
       </c>
     </row>
@@ -3534,7 +3532,7 @@
       <c r="C21">
         <v>2008</v>
       </c>
-      <c r="D21" s="49">
+      <c r="D21" s="44">
         <v>509765</v>
       </c>
     </row>
@@ -3545,7 +3543,7 @@
       <c r="C22">
         <v>2009</v>
       </c>
-      <c r="D22" s="49">
+      <c r="D22" s="44">
         <v>474580</v>
       </c>
     </row>
@@ -3556,7 +3554,7 @@
       <c r="C23">
         <v>2000</v>
       </c>
-      <c r="D23" s="49">
+      <c r="D23" s="44">
         <v>644734</v>
       </c>
     </row>
@@ -3567,7 +3565,7 @@
       <c r="C24">
         <v>2001</v>
       </c>
-      <c r="D24" s="49">
+      <c r="D24" s="44">
         <v>554185</v>
       </c>
     </row>
@@ -3578,7 +3576,7 @@
       <c r="C25">
         <v>2002</v>
       </c>
-      <c r="D25" s="49">
+      <c r="D25" s="44">
         <v>506043</v>
       </c>
     </row>
@@ -3589,7 +3587,7 @@
       <c r="C26">
         <v>2003</v>
       </c>
-      <c r="D26" s="49">
+      <c r="D26" s="44">
         <v>552383</v>
       </c>
     </row>
@@ -3600,7 +3598,7 @@
       <c r="C27">
         <v>2004</v>
       </c>
-      <c r="D27" s="49">
+      <c r="D27" s="44">
         <v>663734</v>
       </c>
     </row>
@@ -3611,7 +3609,7 @@
       <c r="C28">
         <v>2005</v>
       </c>
-      <c r="D28" s="49">
+      <c r="D28" s="44">
         <v>882043</v>
       </c>
     </row>
@@ -3622,7 +3620,7 @@
       <c r="C29">
         <v>2006</v>
       </c>
-      <c r="D29" s="49">
+      <c r="D29" s="44">
         <v>1089255</v>
       </c>
     </row>
@@ -3633,7 +3631,7 @@
       <c r="C30">
         <v>2007</v>
       </c>
-      <c r="D30" s="49">
+      <c r="D30" s="44">
         <v>1366854</v>
       </c>
     </row>
@@ -3644,7 +3642,7 @@
       <c r="C31">
         <v>2008</v>
       </c>
-      <c r="D31" s="49">
+      <c r="D31" s="44">
         <v>1653538</v>
       </c>
     </row>
@@ -3655,7 +3653,7 @@
       <c r="C32">
         <v>2009</v>
       </c>
-      <c r="D32" s="49">
+      <c r="D32" s="44">
         <v>1622311</v>
       </c>
     </row>
@@ -3666,7 +3664,7 @@
       <c r="C33">
         <v>2000</v>
       </c>
-      <c r="D33" s="49">
+      <c r="D33" s="44">
         <v>1496606</v>
       </c>
     </row>
@@ -3677,7 +3675,7 @@
       <c r="C34">
         <v>2001</v>
       </c>
-      <c r="D34" s="49">
+      <c r="D34" s="44">
         <v>1485657</v>
       </c>
     </row>
@@ -3688,7 +3686,7 @@
       <c r="C35">
         <v>2002</v>
       </c>
-      <c r="D35" s="49">
+      <c r="D35" s="44">
         <v>1623558</v>
       </c>
     </row>
@@ -3699,7 +3697,7 @@
       <c r="C36">
         <v>2003</v>
       </c>
-      <c r="D36" s="49">
+      <c r="D36" s="44">
         <v>1877117</v>
       </c>
     </row>
@@ -3710,7 +3708,7 @@
       <c r="C37">
         <v>2004</v>
       </c>
-      <c r="D37" s="49">
+      <c r="D37" s="44">
         <v>2221915</v>
       </c>
     </row>
@@ -3721,7 +3719,7 @@
       <c r="C38">
         <v>2005</v>
       </c>
-      <c r="D38" s="49">
+      <c r="D38" s="44">
         <v>2324184</v>
       </c>
     </row>
@@ -3732,7 +3730,7 @@
       <c r="C39">
         <v>2006</v>
       </c>
-      <c r="D39" s="49">
+      <c r="D39" s="44">
         <v>2486598</v>
       </c>
     </row>
@@ -3743,7 +3741,7 @@
       <c r="C40">
         <v>2007</v>
       </c>
-      <c r="D40" s="49">
+      <c r="D40" s="44">
         <v>2858176</v>
       </c>
     </row>
@@ -3754,7 +3752,7 @@
       <c r="C41">
         <v>2008</v>
       </c>
-      <c r="D41" s="49">
+      <c r="D41" s="44">
         <v>2709573</v>
       </c>
     </row>
@@ -3765,7 +3763,7 @@
       <c r="C42">
         <v>2009</v>
       </c>
-      <c r="D42" s="49">
+      <c r="D42" s="44">
         <v>2217427</v>
       </c>
     </row>
@@ -3776,7 +3774,7 @@
       <c r="C43">
         <v>2000</v>
       </c>
-      <c r="D43" s="49">
+      <c r="D43" s="44">
         <v>1891934</v>
       </c>
     </row>
@@ -3787,7 +3785,7 @@
       <c r="C44">
         <v>2001</v>
       </c>
-      <c r="D44" s="49">
+      <c r="D44" s="44">
         <v>1882511</v>
       </c>
     </row>
@@ -3798,7 +3796,7 @@
       <c r="C45">
         <v>2002</v>
       </c>
-      <c r="D45" s="49">
+      <c r="D45" s="44">
         <v>2013691</v>
       </c>
     </row>
@@ -3809,7 +3807,7 @@
       <c r="C46">
         <v>2003</v>
       </c>
-      <c r="D46" s="49">
+      <c r="D46" s="44">
         <v>2428452</v>
       </c>
     </row>
@@ -3820,7 +3818,7 @@
       <c r="C47">
         <v>2004</v>
       </c>
-      <c r="D47" s="49">
+      <c r="D47" s="44">
         <v>2729923</v>
       </c>
     </row>
@@ -3831,7 +3829,7 @@
       <c r="C48">
         <v>2005</v>
       </c>
-      <c r="D48" s="49">
+      <c r="D48" s="44">
         <v>2771057</v>
       </c>
     </row>
@@ -3842,7 +3840,7 @@
       <c r="C49">
         <v>2006</v>
       </c>
-      <c r="D49" s="49">
+      <c r="D49" s="44">
         <v>2905445</v>
       </c>
     </row>
@@ -3853,7 +3851,7 @@
       <c r="C50">
         <v>2007</v>
       </c>
-      <c r="D50" s="49">
+      <c r="D50" s="44">
         <v>3328589</v>
       </c>
     </row>
@@ -3864,7 +3862,7 @@
       <c r="C51">
         <v>2008</v>
       </c>
-      <c r="D51" s="49">
+      <c r="D51" s="44">
         <v>3640727</v>
       </c>
     </row>
@@ -3875,7 +3873,7 @@
       <c r="C52">
         <v>2009</v>
       </c>
-      <c r="D52" s="49">
+      <c r="D52" s="44">
         <v>3306780</v>
       </c>
     </row>
@@ -3886,7 +3884,7 @@
       <c r="C53">
         <v>2000</v>
       </c>
-      <c r="D53" s="49">
+      <c r="D53" s="44">
         <v>474570</v>
       </c>
     </row>
@@ -3897,7 +3895,7 @@
       <c r="C54">
         <v>2001</v>
       </c>
-      <c r="D54" s="49">
+      <c r="D54" s="44">
         <v>492736</v>
       </c>
     </row>
@@ -3908,7 +3906,7 @@
       <c r="C55">
         <v>2002</v>
       </c>
-      <c r="D55" s="49">
+      <c r="D55" s="44">
         <v>522715</v>
       </c>
     </row>
@@ -3919,7 +3917,7 @@
       <c r="C56">
         <v>2003</v>
       </c>
-      <c r="D56" s="49">
+      <c r="D56" s="44">
         <v>618186</v>
       </c>
     </row>
@@ -3930,7 +3928,7 @@
       <c r="C57">
         <v>2004</v>
       </c>
-      <c r="D57" s="49">
+      <c r="D57" s="44">
         <v>721589</v>
       </c>
     </row>
@@ -3941,7 +3939,7 @@
       <c r="C58">
         <v>2005</v>
       </c>
-      <c r="D58" s="49">
+      <c r="D58" s="44">
         <v>834218</v>
       </c>
     </row>
@@ -3952,7 +3950,7 @@
       <c r="C59">
         <v>2006</v>
       </c>
-      <c r="D59" s="49">
+      <c r="D59" s="44">
         <v>949117</v>
       </c>
     </row>
@@ -3963,7 +3961,7 @@
       <c r="C60">
         <v>2007</v>
       </c>
-      <c r="D60" s="49">
+      <c r="D60" s="44">
         <v>1238478</v>
       </c>
     </row>
@@ -3974,7 +3972,7 @@
       <c r="C61">
         <v>2008</v>
       </c>
-      <c r="D61" s="49">
+      <c r="D61" s="44">
         <v>1223206</v>
       </c>
     </row>
@@ -3985,7 +3983,7 @@
       <c r="C62">
         <v>2009</v>
       </c>
-      <c r="D62" s="49">
+      <c r="D62" s="44">
         <v>1365343</v>
       </c>
     </row>
@@ -3996,7 +3994,7 @@
       <c r="C63">
         <v>2000</v>
       </c>
-      <c r="D63" s="49">
+      <c r="D63" s="44">
         <v>165021</v>
       </c>
     </row>
@@ -4007,7 +4005,7 @@
       <c r="C64">
         <v>2001</v>
       </c>
-      <c r="D64" s="49">
+      <c r="D64" s="44">
         <v>160447</v>
       </c>
     </row>
@@ -4018,7 +4016,7 @@
       <c r="C65">
         <v>2002</v>
       </c>
-      <c r="D65" s="49">
+      <c r="D65" s="44">
         <v>195661</v>
       </c>
     </row>
@@ -4029,7 +4027,7 @@
       <c r="C66">
         <v>2003</v>
       </c>
-      <c r="D66" s="49">
+      <c r="D66" s="44">
         <v>234848</v>
       </c>
     </row>
@@ -4040,7 +4038,7 @@
       <c r="C67">
         <v>2004</v>
       </c>
-      <c r="D67" s="49">
+      <c r="D67" s="44">
         <v>257032</v>
       </c>
     </row>
@@ -4051,7 +4049,7 @@
       <c r="C68">
         <v>2005</v>
       </c>
-      <c r="D68" s="49">
+      <c r="D68" s="44">
         <v>285773</v>
       </c>
     </row>
@@ -4062,7 +4060,7 @@
       <c r="C69">
         <v>2006</v>
       </c>
-      <c r="D69" s="49">
+      <c r="D69" s="44">
         <v>364362</v>
       </c>
     </row>
@@ -4073,7 +4071,7 @@
       <c r="C70">
         <v>2007</v>
       </c>
-      <c r="D70" s="49">
+      <c r="D70" s="44">
         <v>432183</v>
       </c>
     </row>
@@ -4084,7 +4082,7 @@
       <c r="C71">
         <v>2008</v>
       </c>
-      <c r="D71" s="49">
+      <c r="D71" s="44">
         <v>510839</v>
       </c>
     </row>
@@ -4095,7 +4093,7 @@
       <c r="C72">
         <v>2009</v>
       </c>
-      <c r="D72" s="49">
+      <c r="D72" s="44">
         <v>538803</v>
       </c>
     </row>
@@ -4106,7 +4104,7 @@
       <c r="C73">
         <v>2000</v>
       </c>
-      <c r="D73" s="49">
+      <c r="D73" s="44">
         <v>582048</v>
       </c>
     </row>
@@ -4117,7 +4115,7 @@
       <c r="C74">
         <v>2001</v>
       </c>
-      <c r="D74" s="49">
+      <c r="D74" s="44">
         <v>609379</v>
       </c>
     </row>
@@ -4128,7 +4126,7 @@
       <c r="C75">
         <v>2002</v>
       </c>
-      <c r="D75" s="49">
+      <c r="D75" s="44">
         <v>688725</v>
       </c>
     </row>
@@ -4139,7 +4137,7 @@
       <c r="C76">
         <v>2003</v>
       </c>
-      <c r="D76" s="49">
+      <c r="D76" s="44">
         <v>885531</v>
       </c>
     </row>
@@ -4150,7 +4148,7 @@
       <c r="C77">
         <v>2004</v>
       </c>
-      <c r="D77" s="49">
+      <c r="D77" s="44">
         <v>1045984</v>
       </c>
     </row>
@@ -4161,7 +4159,7 @@
       <c r="C78">
         <v>2005</v>
       </c>
-      <c r="D78" s="49">
+      <c r="D78" s="44">
         <v>1132763</v>
       </c>
     </row>
@@ -4172,7 +4170,7 @@
       <c r="C79">
         <v>2006</v>
       </c>
-      <c r="D79" s="49">
+      <c r="D79" s="44">
         <v>1237501</v>
       </c>
     </row>
@@ -4183,7 +4181,7 @@
       <c r="C80">
         <v>2007</v>
       </c>
-      <c r="D80" s="49">
+      <c r="D80" s="44">
         <v>1443500</v>
       </c>
     </row>
@@ -4194,7 +4192,7 @@
       <c r="C81">
         <v>2008</v>
       </c>
-      <c r="D81" s="49">
+      <c r="D81" s="44">
         <v>1600913</v>
       </c>
     </row>
@@ -4205,7 +4203,7 @@
       <c r="C82">
         <v>2009</v>
       </c>
-      <c r="D82" s="49">
+      <c r="D82" s="44">
         <v>1458111</v>
       </c>
     </row>
@@ -4216,7 +4214,7 @@
       <c r="C83">
         <v>2000</v>
       </c>
-      <c r="D83" s="49">
+      <c r="D83" s="44">
         <v>1107248</v>
       </c>
     </row>
@@ -4227,7 +4225,7 @@
       <c r="C84">
         <v>2001</v>
       </c>
-      <c r="D84" s="49">
+      <c r="D84" s="44">
         <v>1124668</v>
       </c>
     </row>
@@ -4238,7 +4236,7 @@
       <c r="C85">
         <v>2002</v>
       </c>
-      <c r="D85" s="49">
+      <c r="D85" s="44">
         <v>1229515</v>
       </c>
     </row>
@@ -4249,7 +4247,7 @@
       <c r="C86">
         <v>2003</v>
       </c>
-      <c r="D86" s="49">
+      <c r="D86" s="44">
         <v>1517402</v>
       </c>
     </row>
@@ -4260,7 +4258,7 @@
       <c r="C87">
         <v>2004</v>
       </c>
-      <c r="D87" s="49">
+      <c r="D87" s="44">
         <v>1737800</v>
       </c>
     </row>
@@ -4271,7 +4269,7 @@
       <c r="C88">
         <v>2005</v>
       </c>
-      <c r="D88" s="49">
+      <c r="D88" s="44">
         <v>1789378</v>
       </c>
     </row>
@@ -4282,7 +4280,7 @@
       <c r="C89">
         <v>2006</v>
       </c>
-      <c r="D89" s="49">
+      <c r="D89" s="44">
         <v>1874722</v>
       </c>
     </row>
@@ -4293,7 +4291,7 @@
       <c r="C90">
         <v>2007</v>
       </c>
-      <c r="D90" s="49">
+      <c r="D90" s="44">
         <v>2130241</v>
       </c>
     </row>
@@ -4304,7 +4302,7 @@
       <c r="C91">
         <v>2008</v>
       </c>
-      <c r="D91" s="49">
+      <c r="D91" s="44">
         <v>2318162</v>
       </c>
     </row>
@@ -4315,7 +4313,7 @@
       <c r="C92">
         <v>2009</v>
       </c>
-      <c r="D92" s="49">
+      <c r="D92" s="44">
         <v>2116627</v>
       </c>
     </row>
@@ -4326,7 +4324,7 @@
       <c r="C93">
         <v>2000</v>
       </c>
-      <c r="D93" s="49">
+      <c r="D93" s="44">
         <v>739451</v>
       </c>
     </row>
@@ -4337,7 +4335,7 @@
       <c r="C94">
         <v>2001</v>
       </c>
-      <c r="D94" s="49">
+      <c r="D94" s="44">
         <v>732735</v>
       </c>
     </row>
@@ -4348,7 +4346,7 @@
       <c r="C95">
         <v>2002</v>
       </c>
-      <c r="D95" s="49">
+      <c r="D95" s="44">
         <v>752523</v>
       </c>
     </row>
@@ -4359,7 +4357,7 @@
       <c r="C96">
         <v>2003</v>
       </c>
-      <c r="D96" s="49">
+      <c r="D96" s="44">
         <v>887782</v>
       </c>
     </row>
@@ -4370,7 +4368,7 @@
       <c r="C97">
         <v>2004</v>
       </c>
-      <c r="D97" s="49">
+      <c r="D97" s="44">
         <v>1018386</v>
       </c>
     </row>
@@ -4381,7 +4379,7 @@
       <c r="C98">
         <v>2005</v>
       </c>
-      <c r="D98" s="49">
+      <c r="D98" s="44">
         <v>1164179</v>
       </c>
     </row>
@@ -4392,7 +4390,7 @@
       <c r="C99">
         <v>2006</v>
       </c>
-      <c r="D99" s="49">
+      <c r="D99" s="44">
         <v>1310795</v>
       </c>
     </row>
@@ -4403,7 +4401,7 @@
       <c r="C100">
         <v>2007</v>
       </c>
-      <c r="D100" s="49">
+      <c r="D100" s="44">
         <v>1457873</v>
       </c>
     </row>
@@ -4414,7 +4412,7 @@
       <c r="C101">
         <v>2008</v>
       </c>
-      <c r="D101" s="49">
+      <c r="D101" s="44">
         <v>1542561</v>
       </c>
     </row>
@@ -4425,7 +4423,7 @@
       <c r="C102">
         <v>2009</v>
       </c>
-      <c r="D102" s="49">
+      <c r="D102" s="44">
         <v>1370839</v>
       </c>
     </row>
@@ -4436,7 +4434,7 @@
       <c r="C103">
         <v>2000</v>
       </c>
-      <c r="D103" s="49">
+      <c r="D103" s="44">
         <v>1198477</v>
       </c>
     </row>
@@ -4447,7 +4445,7 @@
       <c r="C104">
         <v>2001</v>
       </c>
-      <c r="D104" s="49">
+      <c r="D104" s="44">
         <v>1324814</v>
       </c>
     </row>
@@ -4458,7 +4456,7 @@
       <c r="C105">
         <v>2002</v>
       </c>
-      <c r="D105" s="49">
+      <c r="D105" s="44">
         <v>1453833</v>
       </c>
     </row>
@@ -4469,7 +4467,7 @@
       <c r="C106">
         <v>2003</v>
       </c>
-      <c r="D106" s="49">
+      <c r="D106" s="44">
         <v>1640961</v>
       </c>
     </row>
@@ -4480,7 +4478,7 @@
       <c r="C107">
         <v>2004</v>
       </c>
-      <c r="D107" s="49">
+      <c r="D107" s="44">
         <v>1931646</v>
       </c>
     </row>
@@ -4491,7 +4489,7 @@
       <c r="C108">
         <v>2005</v>
       </c>
-      <c r="D108" s="49">
+      <c r="D108" s="44">
         <v>2256919</v>
       </c>
     </row>
@@ -4502,7 +4500,7 @@
       <c r="C109">
         <v>2006</v>
       </c>
-      <c r="D109" s="49">
+      <c r="D109" s="44">
         <v>2712917</v>
       </c>
     </row>
@@ -4513,7 +4511,7 @@
       <c r="C110">
         <v>2007</v>
       </c>
-      <c r="D110" s="49">
+      <c r="D110" s="44">
         <v>3494235</v>
       </c>
     </row>
@@ -4524,7 +4522,7 @@
       <c r="C111">
         <v>2008</v>
       </c>
-      <c r="D111" s="49">
+      <c r="D111" s="44">
         <v>4519951</v>
       </c>
     </row>
@@ -4535,7 +4533,7 @@
       <c r="C112">
         <v>2009</v>
       </c>
-      <c r="D112" s="49">
+      <c r="D112" s="44">
         <v>4990526</v>
       </c>
     </row>
@@ -4546,7 +4544,7 @@
       <c r="C113">
         <v>2000</v>
       </c>
-      <c r="D113" s="49">
+      <c r="D113" s="44">
         <v>692029</v>
       </c>
     </row>
@@ -4557,7 +4555,7 @@
       <c r="C114">
         <v>2001</v>
       </c>
-      <c r="D114" s="49">
+      <c r="D114" s="44">
         <v>733453</v>
       </c>
     </row>
@@ -4568,7 +4566,7 @@
       <c r="C115">
         <v>2002</v>
       </c>
-      <c r="D115" s="49">
+      <c r="D115" s="44">
         <v>750450</v>
       </c>
     </row>
@@ -4579,7 +4577,7 @@
       <c r="C116">
         <v>2003</v>
       </c>
-      <c r="D116" s="49">
+      <c r="D116" s="44">
         <v>722182</v>
       </c>
     </row>
@@ -4590,7 +4588,7 @@
       <c r="C117">
         <v>2004</v>
       </c>
-      <c r="D117" s="49">
+      <c r="D117" s="44">
         <v>774591</v>
       </c>
     </row>
@@ -4601,7 +4599,7 @@
       <c r="C118">
         <v>2005</v>
       </c>
-      <c r="D118" s="49">
+      <c r="D118" s="44">
         <v>869718</v>
       </c>
     </row>
@@ -4612,7 +4610,7 @@
       <c r="C119">
         <v>2006</v>
       </c>
-      <c r="D119" s="49">
+      <c r="D119" s="44">
         <v>965774</v>
       </c>
     </row>
@@ -4623,7 +4621,7 @@
       <c r="C120">
         <v>2007</v>
       </c>
-      <c r="D120" s="49">
+      <c r="D120" s="44">
         <v>1042687</v>
       </c>
     </row>
@@ -4634,7 +4632,7 @@
       <c r="C121">
         <v>2008</v>
       </c>
-      <c r="D121" s="49">
+      <c r="D121" s="44">
         <v>1100673</v>
       </c>
     </row>
@@ -4645,7 +4643,7 @@
       <c r="C122">
         <v>2009</v>
       </c>
-      <c r="D122" s="49">
+      <c r="D122" s="44">
         <v>894566</v>
       </c>
     </row>
@@ -4656,7 +4654,7 @@
       <c r="C123">
         <v>2000</v>
       </c>
-      <c r="D123" s="49">
+      <c r="D123" s="44">
         <v>386204</v>
       </c>
     </row>
@@ -4667,7 +4665,7 @@
       <c r="C124">
         <v>2001</v>
       </c>
-      <c r="D124" s="49">
+      <c r="D124" s="44">
         <v>400998</v>
       </c>
     </row>
@@ -4678,7 +4676,7 @@
       <c r="C125">
         <v>2002</v>
       </c>
-      <c r="D125" s="49">
+      <c r="D125" s="44">
         <v>439357</v>
       </c>
     </row>
@@ -4689,7 +4687,7 @@
       <c r="C126">
         <v>2003</v>
       </c>
-      <c r="D126" s="49">
+      <c r="D126" s="44">
         <v>539343</v>
       </c>
     </row>
@@ -4700,7 +4698,7 @@
       <c r="C127">
         <v>2004</v>
       </c>
-      <c r="D127" s="49">
+      <c r="D127" s="44">
         <v>610691</v>
       </c>
     </row>
@@ -4711,7 +4709,7 @@
       <c r="C128">
         <v>2005</v>
       </c>
-      <c r="D128" s="49">
+      <c r="D128" s="44">
         <v>639579</v>
       </c>
     </row>
@@ -4722,7 +4720,7 @@
       <c r="C129">
         <v>2006</v>
       </c>
-      <c r="D129" s="49">
+      <c r="D129" s="44">
         <v>678321</v>
       </c>
     </row>
@@ -4733,7 +4731,7 @@
       <c r="C130">
         <v>2007</v>
       </c>
-      <c r="D130" s="49">
+      <c r="D130" s="44">
         <v>783692</v>
       </c>
     </row>
@@ -4744,7 +4742,7 @@
       <c r="C131">
         <v>2008</v>
       </c>
-      <c r="D131" s="49">
+      <c r="D131" s="44">
         <v>874906</v>
       </c>
     </row>
@@ -4755,7 +4753,7 @@
       <c r="C132">
         <v>2009</v>
       </c>
-      <c r="D132" s="49">
+      <c r="D132" s="44">
         <v>798400</v>
       </c>
     </row>
@@ -4766,7 +4764,7 @@
       <c r="C133">
         <v>2000</v>
       </c>
-      <c r="D133" s="49">
+      <c r="D133" s="44">
         <v>171263</v>
       </c>
     </row>
@@ -4777,7 +4775,7 @@
       <c r="C134">
         <v>2001</v>
       </c>
-      <c r="D134" s="49">
+      <c r="D134" s="44">
         <v>190421</v>
       </c>
     </row>
@@ -4788,7 +4786,7 @@
       <c r="C135">
         <v>2002</v>
       </c>
-      <c r="D135" s="49">
+      <c r="D135" s="44">
         <v>198205</v>
       </c>
     </row>
@@ -4799,7 +4797,7 @@
       <c r="C136">
         <v>2003</v>
       </c>
-      <c r="D136" s="49">
+      <c r="D136" s="44">
         <v>216811</v>
       </c>
     </row>
@@ -4810,7 +4808,7 @@
       <c r="C137">
         <v>2004</v>
       </c>
-      <c r="D137" s="49">
+      <c r="D137" s="44">
         <v>253021</v>
       </c>
     </row>
@@ -4821,7 +4819,7 @@
       <c r="C138">
         <v>2005</v>
       </c>
-      <c r="D138" s="49">
+      <c r="D138" s="44">
         <v>303976</v>
       </c>
     </row>
@@ -4832,7 +4830,7 @@
       <c r="C139">
         <v>2006</v>
       </c>
-      <c r="D139" s="49">
+      <c r="D139" s="44">
         <v>341670</v>
       </c>
     </row>
@@ -4843,7 +4841,7 @@
       <c r="C140">
         <v>2007</v>
       </c>
-      <c r="D140" s="49">
+      <c r="D140" s="44">
         <v>425321</v>
       </c>
     </row>
@@ -4854,7 +4852,7 @@
       <c r="C141">
         <v>2008</v>
       </c>
-      <c r="D141" s="49">
+      <c r="D141" s="44">
         <v>529432</v>
       </c>
     </row>
@@ -4865,7 +4863,7 @@
       <c r="C142">
         <v>2009</v>
       </c>
-      <c r="D142" s="49">
+      <c r="D142" s="44">
         <v>431457</v>
       </c>
     </row>
@@ -4876,7 +4874,7 @@
       <c r="C143">
         <v>2000</v>
       </c>
-      <c r="D143" s="49">
+      <c r="D143" s="44">
         <v>259702</v>
       </c>
     </row>
@@ -4887,7 +4885,7 @@
       <c r="C144">
         <v>2001</v>
       </c>
-      <c r="D144" s="49">
+      <c r="D144" s="44">
         <v>306583</v>
       </c>
     </row>
@@ -4898,7 +4896,7 @@
       <c r="C145">
         <v>2002</v>
       </c>
-      <c r="D145" s="49">
+      <c r="D145" s="44">
         <v>345125</v>
       </c>
     </row>
@@ -4909,7 +4907,7 @@
       <c r="C146">
         <v>2003</v>
       </c>
-      <c r="D146" s="49">
+      <c r="D146" s="44">
         <v>430289</v>
       </c>
     </row>
@@ -4920,7 +4918,7 @@
       <c r="C147">
         <v>2004</v>
       </c>
-      <c r="D147" s="49">
+      <c r="D147" s="44">
         <v>591177</v>
       </c>
     </row>
@@ -4931,7 +4929,7 @@
       <c r="C148">
         <v>2005</v>
       </c>
-      <c r="D148" s="49">
+      <c r="D148" s="44">
         <v>763704</v>
       </c>
     </row>
@@ -4942,7 +4940,7 @@
       <c r="C149">
         <v>2006</v>
       </c>
-      <c r="D149" s="49">
+      <c r="D149" s="44">
         <v>989932</v>
       </c>
     </row>
@@ -4953,7 +4951,7 @@
       <c r="C150">
         <v>2007</v>
       </c>
-      <c r="D150" s="49">
+      <c r="D150" s="44">
         <v>1299703</v>
       </c>
     </row>
@@ -4964,7 +4962,7 @@
       <c r="C151">
         <v>2008</v>
       </c>
-      <c r="D151" s="49">
+      <c r="D151" s="44">
         <v>1660846</v>
       </c>
     </row>
@@ -4975,7 +4973,7 @@
       <c r="C152">
         <v>2009</v>
       </c>
-      <c r="D152" s="49">
+      <c r="D152" s="44">
         <v>1222645</v>
       </c>
     </row>
@@ -4986,7 +4984,7 @@
       <c r="C153">
         <v>2000</v>
       </c>
-      <c r="D153" s="49">
+      <c r="D153" s="44">
         <v>10289725</v>
       </c>
     </row>
@@ -4997,7 +4995,7 @@
       <c r="C154">
         <v>2001</v>
       </c>
-      <c r="D154" s="49">
+      <c r="D154" s="44">
         <v>10625275</v>
       </c>
     </row>
@@ -5008,7 +5006,7 @@
       <c r="C155">
         <v>2002</v>
       </c>
-      <c r="D155" s="49">
+      <c r="D155" s="44">
         <v>10980200</v>
       </c>
     </row>
@@ -5019,7 +5017,7 @@
       <c r="C156">
         <v>2003</v>
       </c>
-      <c r="D156" s="49">
+      <c r="D156" s="44">
         <v>11512275</v>
       </c>
     </row>
@@ -5030,7 +5028,7 @@
       <c r="C157">
         <v>2004</v>
       </c>
-      <c r="D157" s="49">
+      <c r="D157" s="44">
         <v>12277025</v>
       </c>
     </row>
@@ -5041,7 +5039,7 @@
       <c r="C158">
         <v>2005</v>
       </c>
-      <c r="D158" s="49">
+      <c r="D158" s="44">
         <v>13095425</v>
       </c>
     </row>
@@ -5052,7 +5050,7 @@
       <c r="C159">
         <v>2006</v>
       </c>
-      <c r="D159" s="49">
+      <c r="D159" s="44">
         <v>13857900</v>
       </c>
     </row>
@@ -5063,7 +5061,7 @@
       <c r="C160">
         <v>2007</v>
       </c>
-      <c r="D160" s="49">
+      <c r="D160" s="44">
         <v>14480350</v>
       </c>
     </row>
@@ -5074,7 +5072,7 @@
       <c r="C161">
         <v>2008</v>
       </c>
-      <c r="D161" s="49">
+      <c r="D161" s="44">
         <v>14720250</v>
       </c>
     </row>
@@ -5085,7 +5083,7 @@
       <c r="C162">
         <v>2009</v>
       </c>
-      <c r="D162" s="49">
+      <c r="D162" s="44">
         <v>14417950</v>
       </c>
     </row>
@@ -5096,7 +5094,7 @@
       <c r="C163">
         <v>2000</v>
       </c>
-      <c r="D163" s="49">
+      <c r="D163" s="44">
         <v>266560</v>
       </c>
     </row>
@@ -5107,7 +5105,7 @@
       <c r="C164">
         <v>2001</v>
       </c>
-      <c r="D164" s="49">
+      <c r="D164" s="44">
         <v>196007</v>
       </c>
     </row>
@@ -5118,7 +5116,7 @@
       <c r="C165">
         <v>2002</v>
       </c>
-      <c r="D165" s="49">
+      <c r="D165" s="44">
         <v>232530</v>
       </c>
     </row>
@@ -5129,7 +5127,7 @@
       <c r="C166">
         <v>2003</v>
       </c>
-      <c r="D166" s="49">
+      <c r="D166" s="44">
         <v>303008</v>
       </c>
     </row>
@@ -5140,7 +5138,7 @@
       <c r="C167">
         <v>2004</v>
       </c>
-      <c r="D167" s="49">
+      <c r="D167" s="44">
         <v>392156</v>
       </c>
     </row>
@@ -5151,7 +5149,7 @@
       <c r="C168">
         <v>2005</v>
       </c>
-      <c r="D168" s="49">
+      <c r="D168" s="44">
         <v>482986</v>
       </c>
     </row>
@@ -5162,7 +5160,7 @@
       <c r="C169">
         <v>2006</v>
       </c>
-      <c r="D169" s="49">
+      <c r="D169" s="44">
         <v>530917</v>
       </c>
     </row>
@@ -5173,7 +5171,7 @@
       <c r="C170">
         <v>2007</v>
       </c>
-      <c r="D170" s="49">
+      <c r="D170" s="44">
         <v>647140</v>
       </c>
     </row>
@@ -5184,7 +5182,7 @@
       <c r="C171">
         <v>2008</v>
       </c>
-      <c r="D171" s="49">
+      <c r="D171" s="44">
         <v>730325</v>
       </c>
     </row>
@@ -5195,7 +5193,7 @@
       <c r="C172">
         <v>2009</v>
       </c>
-      <c r="D172" s="49">
+      <c r="D172" s="44">
         <v>614570</v>
       </c>
     </row>
@@ -5206,7 +5204,7 @@
       <c r="C173">
         <v>2000</v>
       </c>
-      <c r="D173" s="49">
+      <c r="D173" s="44">
         <v>1330224</v>
       </c>
     </row>
@@ -5217,7 +5215,7 @@
       <c r="C174">
         <v>2001</v>
       </c>
-      <c r="D174" s="49">
+      <c r="D174" s="44">
         <v>1339453</v>
       </c>
     </row>
@@ -5228,7 +5226,7 @@
       <c r="C175">
         <v>2002</v>
       </c>
-      <c r="D175" s="49">
+      <c r="D175" s="44">
         <v>1457171</v>
       </c>
     </row>
@@ -5239,7 +5237,7 @@
       <c r="C176">
         <v>2003</v>
       </c>
-      <c r="D176" s="49">
+      <c r="D176" s="44">
         <v>1795644</v>
       </c>
     </row>
@@ -5250,7 +5248,7 @@
       <c r="C177">
         <v>2004</v>
       </c>
-      <c r="D177" s="49">
+      <c r="D177" s="44">
         <v>2058380</v>
       </c>
     </row>
@@ -5261,7 +5259,7 @@
       <c r="C178">
         <v>2005</v>
       </c>
-      <c r="D178" s="49">
+      <c r="D178" s="44">
         <v>2140266</v>
       </c>
     </row>
@@ -5272,7 +5270,7 @@
       <c r="C179">
         <v>2006</v>
       </c>
-      <c r="D179" s="49">
+      <c r="D179" s="44">
         <v>2257802</v>
       </c>
     </row>
@@ -5283,7 +5281,7 @@
       <c r="C180">
         <v>2007</v>
       </c>
-      <c r="D180" s="49">
+      <c r="D180" s="44">
         <v>2586104</v>
       </c>
     </row>
@@ -5294,7 +5292,7 @@
       <c r="C181">
         <v>2008</v>
       </c>
-      <c r="D181" s="49">
+      <c r="D181" s="44">
         <v>2845111</v>
       </c>
     </row>
@@ -5305,7 +5303,7 @@
       <c r="C182">
         <v>2009</v>
       </c>
-      <c r="D182" s="49">
+      <c r="D182" s="44">
         <v>2626486</v>
       </c>
     </row>
@@ -5316,7 +5314,7 @@
       <c r="C183">
         <v>2000</v>
       </c>
-      <c r="D183" s="49">
+      <c r="D183" s="44">
         <v>256036</v>
       </c>
     </row>
@@ -5327,7 +5325,7 @@
       <c r="C184">
         <v>2001</v>
       </c>
-      <c r="D184" s="49">
+      <c r="D184" s="44">
         <v>262645</v>
       </c>
     </row>
@@ -5338,7 +5336,7 @@
       <c r="C185">
         <v>2002</v>
       </c>
-      <c r="D185" s="49">
+      <c r="D185" s="44">
         <v>286657</v>
       </c>
     </row>
@@ -5349,7 +5347,7 @@
       <c r="C186">
         <v>2003</v>
       </c>
-      <c r="D186" s="49">
+      <c r="D186" s="44">
         <v>334587</v>
       </c>
     </row>
@@ -5360,7 +5358,7 @@
       <c r="C187">
         <v>2004</v>
       </c>
-      <c r="D187" s="49">
+      <c r="D187" s="44">
         <v>374226</v>
       </c>
     </row>
@@ -5371,7 +5369,7 @@
       <c r="C188">
         <v>2005</v>
       </c>
-      <c r="D188" s="49">
+      <c r="D188" s="44">
         <v>384755</v>
       </c>
     </row>
@@ -5382,7 +5380,7 @@
       <c r="C189">
         <v>2006</v>
       </c>
-      <c r="D189" s="49">
+      <c r="D189" s="44">
         <v>405183</v>
       </c>
     </row>
@@ -5393,7 +5391,7 @@
       <c r="C190">
         <v>2007</v>
       </c>
-      <c r="D190" s="49">
+      <c r="D190" s="44">
         <v>450530</v>
       </c>
     </row>
@@ -5404,7 +5402,7 @@
       <c r="C191">
         <v>2008</v>
       </c>
-      <c r="D191" s="49">
+      <c r="D191" s="44">
         <v>524289</v>
       </c>
     </row>
@@ -5415,7 +5413,7 @@
       <c r="C192">
         <v>2009</v>
       </c>
-      <c r="D192" s="49">
+      <c r="D192" s="44">
         <v>509466</v>
       </c>
     </row>
@@ -5426,7 +5424,7 @@
       <c r="C193">
         <v>2000</v>
       </c>
-      <c r="D193" s="49">
+      <c r="D193" s="44">
         <v>533385</v>
       </c>
     </row>
@@ -5437,7 +5435,7 @@
       <c r="C194">
         <v>2001</v>
       </c>
-      <c r="D194" s="49">
+      <c r="D194" s="44">
         <v>504584</v>
       </c>
     </row>
@@ -5448,7 +5446,7 @@
       <c r="C195">
         <v>2002</v>
       </c>
-      <c r="D195" s="49">
+      <c r="D195" s="44">
         <v>575930</v>
       </c>
     </row>
@@ -5459,7 +5457,7 @@
       <c r="C196">
         <v>2003</v>
       </c>
-      <c r="D196" s="49">
+      <c r="D196" s="44">
         <v>643760</v>
       </c>
     </row>
@@ -5470,7 +5468,7 @@
       <c r="C197">
         <v>2004</v>
       </c>
-      <c r="D197" s="49">
+      <c r="D197" s="44">
         <v>721976</v>
       </c>
     </row>
@@ -5481,7 +5479,7 @@
       <c r="C198">
         <v>2005</v>
       </c>
-      <c r="D198" s="49">
+      <c r="D198" s="44">
         <v>844866</v>
       </c>
     </row>
@@ -5492,7 +5490,7 @@
       <c r="C199">
         <v>2006</v>
       </c>
-      <c r="D199" s="49">
+      <c r="D199" s="44">
         <v>951773</v>
       </c>
     </row>
@@ -5503,7 +5501,7 @@
       <c r="C200">
         <v>2007</v>
       </c>
-      <c r="D200" s="49">
+      <c r="D200" s="44">
         <v>1049239</v>
       </c>
     </row>
@@ -5514,7 +5512,7 @@
       <c r="C201">
         <v>2008</v>
       </c>
-      <c r="D201" s="49">
+      <c r="D201" s="44">
         <v>931405</v>
       </c>
     </row>
@@ -5525,7 +5523,7 @@
       <c r="C202">
         <v>2009</v>
       </c>
-      <c r="D202" s="49">
+      <c r="D202" s="44">
         <v>834060</v>
       </c>
     </row>
@@ -5536,7 +5534,7 @@
       <c r="C203">
         <v>2000</v>
       </c>
-      <c r="D203" s="49">
+      <c r="D203" s="44">
         <v>4731199</v>
       </c>
     </row>
@@ -5547,7 +5545,7 @@
       <c r="C204">
         <v>2001</v>
       </c>
-      <c r="D204" s="49">
+      <c r="D204" s="44">
         <v>4159859</v>
       </c>
     </row>
@@ -5558,7 +5556,7 @@
       <c r="C205">
         <v>2002</v>
       </c>
-      <c r="D205" s="49">
+      <c r="D205" s="44">
         <v>3980819</v>
       </c>
     </row>
@@ -5569,7 +5567,7 @@
       <c r="C206">
         <v>2003</v>
       </c>
-      <c r="D206" s="49">
+      <c r="D206" s="44">
         <v>4302940</v>
       </c>
     </row>
@@ -5580,7 +5578,7 @@
       <c r="C207">
         <v>2004</v>
       </c>
-      <c r="D207" s="49">
+      <c r="D207" s="44">
         <v>4655823</v>
       </c>
     </row>
@@ -5591,7 +5589,7 @@
       <c r="C208">
         <v>2005</v>
       </c>
-      <c r="D208" s="49">
+      <c r="D208" s="44">
         <v>4571867</v>
       </c>
     </row>
@@ -5602,7 +5600,7 @@
       <c r="C209">
         <v>2006</v>
       </c>
-      <c r="D209" s="49">
+      <c r="D209" s="44">
         <v>4356750</v>
       </c>
     </row>
@@ -5613,7 +5611,7 @@
       <c r="C210">
         <v>2007</v>
       </c>
-      <c r="D210" s="49">
+      <c r="D210" s="44">
         <v>4356347</v>
       </c>
     </row>
@@ -5624,7 +5622,7 @@
       <c r="C211">
         <v>2008</v>
       </c>
-      <c r="D211" s="49">
+      <c r="D211" s="44">
         <v>4849185</v>
       </c>
     </row>
@@ -5635,7 +5633,7 @@
       <c r="C212">
         <v>2009</v>
       </c>
-      <c r="D212" s="49">
+      <c r="D212" s="44">
         <v>5035141</v>
       </c>
     </row>
@@ -5731,27 +5729,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.7">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="49" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.7">
-      <c r="B3" s="55">
+      <c r="B3" s="50">
         <v>45097</v>
       </c>
-      <c r="C3" s="56">
+      <c r="C3" s="51">
         <v>843.77</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.7">
-      <c r="B4" s="55">
+      <c r="B4" s="50">
         <f>B3+1</f>
         <v>45098</v>
       </c>
-      <c r="C4" s="56">
+      <c r="C4" s="51">
         <v>400.6</v>
       </c>
       <c r="E4" t="s">
@@ -5762,11 +5760,11 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.7">
-      <c r="B5" s="55">
+      <c r="B5" s="50">
         <f t="shared" ref="B5:B20" si="0">B4+1</f>
         <v>45099</v>
       </c>
-      <c r="C5" s="56">
+      <c r="C5" s="51">
         <v>396.54</v>
       </c>
       <c r="E5" t="s">
@@ -5777,45 +5775,45 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.7">
-      <c r="B6" s="55">
+      <c r="B6" s="50">
         <f t="shared" si="0"/>
         <v>45100</v>
       </c>
-      <c r="C6" s="56">
+      <c r="C6" s="51">
         <v>656.56</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.7">
-      <c r="B7" s="55">
+      <c r="B7" s="50">
         <f t="shared" si="0"/>
         <v>45101</v>
       </c>
-      <c r="C7" s="56">
+      <c r="C7" s="51">
         <v>249.77</v>
       </c>
       <c r="E7" t="s">
         <v>197</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F7" s="48">
         <f>SUMIF(B3:B20, "&lt;="&amp;F5, C3:C20)-SUMIF(B3:B20, "&lt;"&amp;F4, C3:C20)</f>
         <v>7400.6099999999988</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.7">
-      <c r="B8" s="55">
+      <c r="B8" s="50">
         <f t="shared" si="0"/>
         <v>45102</v>
       </c>
-      <c r="C8" s="56">
+      <c r="C8" s="51">
         <v>318.04000000000002</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.7">
-      <c r="B9" s="55">
+      <c r="B9" s="50">
         <f t="shared" si="0"/>
         <v>45103</v>
       </c>
-      <c r="C9" s="56">
+      <c r="C9" s="51">
         <v>935.37</v>
       </c>
       <c r="E9" t="s">
@@ -5827,11 +5825,11 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.7">
-      <c r="B10" s="55">
+      <c r="B10" s="50">
         <f t="shared" si="0"/>
         <v>45104</v>
       </c>
-      <c r="C10" s="56">
+      <c r="C10" s="51">
         <v>828.11</v>
       </c>
       <c r="E10" t="s">
@@ -5843,92 +5841,92 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.7">
-      <c r="B11" s="55">
+      <c r="B11" s="50">
         <f t="shared" si="0"/>
         <v>45105</v>
       </c>
-      <c r="C11" s="56">
+      <c r="C11" s="51">
         <v>686.07</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.7">
-      <c r="B12" s="55">
+      <c r="B12" s="50">
         <f t="shared" si="0"/>
         <v>45106</v>
       </c>
-      <c r="C12" s="56">
+      <c r="C12" s="51">
         <v>647.5</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.7">
-      <c r="B13" s="55">
+      <c r="B13" s="50">
         <f t="shared" si="0"/>
         <v>45107</v>
       </c>
-      <c r="C13" s="56">
+      <c r="C13" s="51">
         <v>375</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.7">
-      <c r="B14" s="55">
+      <c r="B14" s="50">
         <f t="shared" si="0"/>
         <v>45108</v>
       </c>
-      <c r="C14" s="56">
+      <c r="C14" s="51">
         <v>991.02</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.7">
-      <c r="B15" s="55">
+      <c r="B15" s="50">
         <f t="shared" si="0"/>
         <v>45109</v>
       </c>
-      <c r="C15" s="56">
+      <c r="C15" s="51">
         <v>344.75</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.7">
-      <c r="B16" s="55">
+      <c r="B16" s="50">
         <f t="shared" si="0"/>
         <v>45110</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="52">
         <v>485.97</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="B17" s="55">
+      <c r="B17" s="50">
         <f t="shared" si="0"/>
         <v>45111</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="52">
         <v>580.79999999999995</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="B18" s="55">
+      <c r="B18" s="50">
         <f t="shared" si="0"/>
         <v>45112</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="52">
         <v>703.13</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="B19" s="55">
+      <c r="B19" s="50">
         <f t="shared" si="0"/>
         <v>45113</v>
       </c>
-      <c r="C19" s="57">
+      <c r="C19" s="52">
         <v>504.85</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="B20" s="55">
+      <c r="B20" s="50">
         <f t="shared" si="0"/>
         <v>45114</v>
       </c>
-      <c r="C20" s="57">
+      <c r="C20" s="52">
         <v>596.05999999999995</v>
       </c>
     </row>
@@ -5938,2442 +5936,6 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCD2088-0D0F-4FF8-8F04-5281FA0DD1EF}">
-  <dimension ref="B2:G212"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="46.5" x14ac:dyDescent="0.7"/>
-  <cols>
-    <col min="2" max="2" width="11.9140625" customWidth="1"/>
-    <col min="3" max="3" width="10.70703125" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="18.75" customWidth="1"/>
-    <col min="7" max="7" width="14.4140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.7">
-      <c r="B2" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="F2" s="59" t="s">
-        <v>201</v>
-      </c>
-      <c r="G2" t="str">
-        <f>"&gt;5000000"</f>
-        <v>&gt;5000000</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.7">
-      <c r="B3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3">
-        <v>2000</v>
-      </c>
-      <c r="D3" s="49">
-        <v>399594</v>
-      </c>
-      <c r="F3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G3" s="58" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.7">
-      <c r="B4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C4">
-        <v>2001</v>
-      </c>
-      <c r="D4" s="49">
-        <v>377207</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.7">
-      <c r="B5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C5">
-        <v>2002</v>
-      </c>
-      <c r="D5" s="49">
-        <v>423676</v>
-      </c>
-      <c r="F5" t="s">
-        <v>203</v>
-      </c>
-      <c r="G5">
-        <f>COUNTIF(D3:D212,G2)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.7">
-      <c r="B6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C6">
-        <v>2003</v>
-      </c>
-      <c r="D6" s="49">
-        <v>539162</v>
-      </c>
-      <c r="F6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G6">
-        <f>COUNTIF(D3:D212,G3)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.7">
-      <c r="B7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C7">
-        <v>2004</v>
-      </c>
-      <c r="D7" s="49">
-        <v>654968</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.7">
-      <c r="B8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C8">
-        <v>2005</v>
-      </c>
-      <c r="D8" s="49">
-        <v>730729</v>
-      </c>
-      <c r="F8" t="s">
-        <v>205</v>
-      </c>
-      <c r="G8">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.7">
-      <c r="B9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C9">
-        <v>2006</v>
-      </c>
-      <c r="D9" s="49">
-        <v>777933</v>
-      </c>
-      <c r="F9" t="s">
-        <v>206</v>
-      </c>
-      <c r="G9">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.7">
-      <c r="B10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C10">
-        <v>2007</v>
-      </c>
-      <c r="D10" s="49">
-        <v>945364</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.7">
-      <c r="B11" t="s">
-        <v>172</v>
-      </c>
-      <c r="C11">
-        <v>2008</v>
-      </c>
-      <c r="D11" s="49">
-        <v>1051261</v>
-      </c>
-      <c r="F11" t="s">
-        <v>207</v>
-      </c>
-      <c r="G11">
-        <f>COUNTIF(D3:D212,"&lt;="&amp;G9)</f>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.7">
-      <c r="B12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12">
-        <v>2009</v>
-      </c>
-      <c r="D12" s="49">
-        <v>993349</v>
-      </c>
-      <c r="F12" t="s">
-        <v>208</v>
-      </c>
-      <c r="G12">
-        <f>COUNTIF(D3:D212, "&lt;"&amp;G8)</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.7">
-      <c r="B13" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13">
-        <v>2000</v>
-      </c>
-      <c r="D13" s="49">
-        <v>233354</v>
-      </c>
-      <c r="F13" t="s">
-        <v>209</v>
-      </c>
-      <c r="G13">
-        <f>G11-G12</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.7">
-      <c r="B14" t="s">
-        <v>173</v>
-      </c>
-      <c r="C14">
-        <v>2001</v>
-      </c>
-      <c r="D14" s="49">
-        <v>232686</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.7">
-      <c r="B15" t="s">
-        <v>173</v>
-      </c>
-      <c r="C15">
-        <v>2002</v>
-      </c>
-      <c r="D15" s="49">
-        <v>253689</v>
-      </c>
-      <c r="F15" t="s">
-        <v>210</v>
-      </c>
-      <c r="G15">
-        <f>COUNTIFS(D3:D212, "&gt;="&amp;G8, D3:D212, "&lt;="&amp;G9)</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.7">
-      <c r="B16" t="s">
-        <v>173</v>
-      </c>
-      <c r="C16">
-        <v>2003</v>
-      </c>
-      <c r="D16" s="49">
-        <v>312285</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.7">
-      <c r="B17" t="s">
-        <v>173</v>
-      </c>
-      <c r="C17">
-        <v>2004</v>
-      </c>
-      <c r="D17" s="49">
-        <v>362160</v>
-      </c>
-      <c r="F17" t="s">
-        <v>166</v>
-      </c>
-      <c r="G17" s="61" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.7">
-      <c r="B18" t="s">
-        <v>173</v>
-      </c>
-      <c r="C18">
-        <v>2005</v>
-      </c>
-      <c r="D18" s="49">
-        <v>378006</v>
-      </c>
-      <c r="F18" t="s">
-        <v>255</v>
-      </c>
-      <c r="G18" s="66">
-        <f>AVERAGEIF(B3:B212,G17,D3:D212)</f>
-        <v>1068445.5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.7">
-      <c r="B19" t="s">
-        <v>173</v>
-      </c>
-      <c r="C19">
-        <v>2006</v>
-      </c>
-      <c r="D19" s="49">
-        <v>400337</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.7">
-      <c r="B20" t="s">
-        <v>173</v>
-      </c>
-      <c r="C20">
-        <v>2007</v>
-      </c>
-      <c r="D20" s="49">
-        <v>460280</v>
-      </c>
-      <c r="F20" t="s">
-        <v>167</v>
-      </c>
-      <c r="G20" s="61">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.7">
-      <c r="B21" t="s">
-        <v>173</v>
-      </c>
-      <c r="C21">
-        <v>2008</v>
-      </c>
-      <c r="D21" s="49">
-        <v>509765</v>
-      </c>
-      <c r="F21" t="s">
-        <v>255</v>
-      </c>
-      <c r="G21" s="66">
-        <f>AVERAGEIF(C3:C212, G20,D3:D212)</f>
-        <v>1716866.8095238095</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.7">
-      <c r="B22" t="s">
-        <v>173</v>
-      </c>
-      <c r="C22">
-        <v>2009</v>
-      </c>
-      <c r="D22" s="49">
-        <v>474580</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.7">
-      <c r="B23" t="s">
-        <v>174</v>
-      </c>
-      <c r="C23">
-        <v>2000</v>
-      </c>
-      <c r="D23" s="49">
-        <v>644734</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.7">
-      <c r="B24" t="s">
-        <v>174</v>
-      </c>
-      <c r="C24">
-        <v>2001</v>
-      </c>
-      <c r="D24" s="49">
-        <v>554185</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.7">
-      <c r="B25" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25">
-        <v>2002</v>
-      </c>
-      <c r="D25" s="49">
-        <v>506043</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.7">
-      <c r="B26" t="s">
-        <v>174</v>
-      </c>
-      <c r="C26">
-        <v>2003</v>
-      </c>
-      <c r="D26" s="49">
-        <v>552383</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.7">
-      <c r="B27" t="s">
-        <v>174</v>
-      </c>
-      <c r="C27">
-        <v>2004</v>
-      </c>
-      <c r="D27" s="49">
-        <v>663734</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.7">
-      <c r="B28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C28">
-        <v>2005</v>
-      </c>
-      <c r="D28" s="49">
-        <v>882043</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.7">
-      <c r="B29" t="s">
-        <v>174</v>
-      </c>
-      <c r="C29">
-        <v>2006</v>
-      </c>
-      <c r="D29" s="49">
-        <v>1089255</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.7">
-      <c r="B30" t="s">
-        <v>174</v>
-      </c>
-      <c r="C30">
-        <v>2007</v>
-      </c>
-      <c r="D30" s="49">
-        <v>1366854</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.7">
-      <c r="B31" t="s">
-        <v>174</v>
-      </c>
-      <c r="C31">
-        <v>2008</v>
-      </c>
-      <c r="D31" s="49">
-        <v>1653538</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.7">
-      <c r="B32" t="s">
-        <v>174</v>
-      </c>
-      <c r="C32">
-        <v>2009</v>
-      </c>
-      <c r="D32" s="49">
-        <v>1622311</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B33" t="s">
-        <v>175</v>
-      </c>
-      <c r="C33">
-        <v>2000</v>
-      </c>
-      <c r="D33" s="49">
-        <v>1496606</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B34" t="s">
-        <v>175</v>
-      </c>
-      <c r="C34">
-        <v>2001</v>
-      </c>
-      <c r="D34" s="49">
-        <v>1485657</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B35" t="s">
-        <v>175</v>
-      </c>
-      <c r="C35">
-        <v>2002</v>
-      </c>
-      <c r="D35" s="49">
-        <v>1623558</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B36" t="s">
-        <v>175</v>
-      </c>
-      <c r="C36">
-        <v>2003</v>
-      </c>
-      <c r="D36" s="49">
-        <v>1877117</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B37" t="s">
-        <v>175</v>
-      </c>
-      <c r="C37">
-        <v>2004</v>
-      </c>
-      <c r="D37" s="49">
-        <v>2221915</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B38" t="s">
-        <v>175</v>
-      </c>
-      <c r="C38">
-        <v>2005</v>
-      </c>
-      <c r="D38" s="49">
-        <v>2324184</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B39" t="s">
-        <v>175</v>
-      </c>
-      <c r="C39">
-        <v>2006</v>
-      </c>
-      <c r="D39" s="49">
-        <v>2486598</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B40" t="s">
-        <v>175</v>
-      </c>
-      <c r="C40">
-        <v>2007</v>
-      </c>
-      <c r="D40" s="49">
-        <v>2858176</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B41" t="s">
-        <v>175</v>
-      </c>
-      <c r="C41">
-        <v>2008</v>
-      </c>
-      <c r="D41" s="49">
-        <v>2709573</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B42" t="s">
-        <v>175</v>
-      </c>
-      <c r="C42">
-        <v>2009</v>
-      </c>
-      <c r="D42" s="49">
-        <v>2217427</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B43" t="s">
-        <v>176</v>
-      </c>
-      <c r="C43">
-        <v>2000</v>
-      </c>
-      <c r="D43" s="49">
-        <v>1891934</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B44" t="s">
-        <v>176</v>
-      </c>
-      <c r="C44">
-        <v>2001</v>
-      </c>
-      <c r="D44" s="49">
-        <v>1882511</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B45" t="s">
-        <v>176</v>
-      </c>
-      <c r="C45">
-        <v>2002</v>
-      </c>
-      <c r="D45" s="49">
-        <v>2013691</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B46" t="s">
-        <v>176</v>
-      </c>
-      <c r="C46">
-        <v>2003</v>
-      </c>
-      <c r="D46" s="49">
-        <v>2428452</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B47" t="s">
-        <v>176</v>
-      </c>
-      <c r="C47">
-        <v>2004</v>
-      </c>
-      <c r="D47" s="49">
-        <v>2729923</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B48" t="s">
-        <v>176</v>
-      </c>
-      <c r="C48">
-        <v>2005</v>
-      </c>
-      <c r="D48" s="49">
-        <v>2771057</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B49" t="s">
-        <v>176</v>
-      </c>
-      <c r="C49">
-        <v>2006</v>
-      </c>
-      <c r="D49" s="49">
-        <v>2905445</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B50" t="s">
-        <v>176</v>
-      </c>
-      <c r="C50">
-        <v>2007</v>
-      </c>
-      <c r="D50" s="49">
-        <v>3328589</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B51" t="s">
-        <v>176</v>
-      </c>
-      <c r="C51">
-        <v>2008</v>
-      </c>
-      <c r="D51" s="49">
-        <v>3640727</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B52" t="s">
-        <v>176</v>
-      </c>
-      <c r="C52">
-        <v>2009</v>
-      </c>
-      <c r="D52" s="49">
-        <v>3306780</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B53" t="s">
-        <v>177</v>
-      </c>
-      <c r="C53">
-        <v>2000</v>
-      </c>
-      <c r="D53" s="49">
-        <v>474570</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B54" t="s">
-        <v>177</v>
-      </c>
-      <c r="C54">
-        <v>2001</v>
-      </c>
-      <c r="D54" s="49">
-        <v>492736</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B55" t="s">
-        <v>177</v>
-      </c>
-      <c r="C55">
-        <v>2002</v>
-      </c>
-      <c r="D55" s="49">
-        <v>522715</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B56" t="s">
-        <v>177</v>
-      </c>
-      <c r="C56">
-        <v>2003</v>
-      </c>
-      <c r="D56" s="49">
-        <v>618186</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B57" t="s">
-        <v>177</v>
-      </c>
-      <c r="C57">
-        <v>2004</v>
-      </c>
-      <c r="D57" s="49">
-        <v>721589</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B58" t="s">
-        <v>177</v>
-      </c>
-      <c r="C58">
-        <v>2005</v>
-      </c>
-      <c r="D58" s="49">
-        <v>834218</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B59" t="s">
-        <v>177</v>
-      </c>
-      <c r="C59">
-        <v>2006</v>
-      </c>
-      <c r="D59" s="49">
-        <v>949117</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B60" t="s">
-        <v>177</v>
-      </c>
-      <c r="C60">
-        <v>2007</v>
-      </c>
-      <c r="D60" s="49">
-        <v>1238478</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B61" t="s">
-        <v>177</v>
-      </c>
-      <c r="C61">
-        <v>2008</v>
-      </c>
-      <c r="D61" s="49">
-        <v>1223206</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B62" t="s">
-        <v>177</v>
-      </c>
-      <c r="C62">
-        <v>2009</v>
-      </c>
-      <c r="D62" s="49">
-        <v>1365343</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B63" t="s">
-        <v>178</v>
-      </c>
-      <c r="C63">
-        <v>2000</v>
-      </c>
-      <c r="D63" s="49">
-        <v>165021</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B64" t="s">
-        <v>178</v>
-      </c>
-      <c r="C64">
-        <v>2001</v>
-      </c>
-      <c r="D64" s="49">
-        <v>160447</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B65" t="s">
-        <v>178</v>
-      </c>
-      <c r="C65">
-        <v>2002</v>
-      </c>
-      <c r="D65" s="49">
-        <v>195661</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B66" t="s">
-        <v>178</v>
-      </c>
-      <c r="C66">
-        <v>2003</v>
-      </c>
-      <c r="D66" s="49">
-        <v>234848</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B67" t="s">
-        <v>178</v>
-      </c>
-      <c r="C67">
-        <v>2004</v>
-      </c>
-      <c r="D67" s="49">
-        <v>257032</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B68" t="s">
-        <v>178</v>
-      </c>
-      <c r="C68">
-        <v>2005</v>
-      </c>
-      <c r="D68" s="49">
-        <v>285773</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B69" t="s">
-        <v>178</v>
-      </c>
-      <c r="C69">
-        <v>2006</v>
-      </c>
-      <c r="D69" s="49">
-        <v>364362</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B70" t="s">
-        <v>178</v>
-      </c>
-      <c r="C70">
-        <v>2007</v>
-      </c>
-      <c r="D70" s="49">
-        <v>432183</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B71" t="s">
-        <v>178</v>
-      </c>
-      <c r="C71">
-        <v>2008</v>
-      </c>
-      <c r="D71" s="49">
-        <v>510839</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B72" t="s">
-        <v>178</v>
-      </c>
-      <c r="C72">
-        <v>2009</v>
-      </c>
-      <c r="D72" s="49">
-        <v>538803</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B73" t="s">
-        <v>179</v>
-      </c>
-      <c r="C73">
-        <v>2000</v>
-      </c>
-      <c r="D73" s="49">
-        <v>582048</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B74" t="s">
-        <v>179</v>
-      </c>
-      <c r="C74">
-        <v>2001</v>
-      </c>
-      <c r="D74" s="49">
-        <v>609379</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B75" t="s">
-        <v>179</v>
-      </c>
-      <c r="C75">
-        <v>2002</v>
-      </c>
-      <c r="D75" s="49">
-        <v>688725</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B76" t="s">
-        <v>179</v>
-      </c>
-      <c r="C76">
-        <v>2003</v>
-      </c>
-      <c r="D76" s="49">
-        <v>885531</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B77" t="s">
-        <v>179</v>
-      </c>
-      <c r="C77">
-        <v>2004</v>
-      </c>
-      <c r="D77" s="49">
-        <v>1045984</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B78" t="s">
-        <v>179</v>
-      </c>
-      <c r="C78">
-        <v>2005</v>
-      </c>
-      <c r="D78" s="49">
-        <v>1132763</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B79" t="s">
-        <v>179</v>
-      </c>
-      <c r="C79">
-        <v>2006</v>
-      </c>
-      <c r="D79" s="49">
-        <v>1237501</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B80" t="s">
-        <v>179</v>
-      </c>
-      <c r="C80">
-        <v>2007</v>
-      </c>
-      <c r="D80" s="49">
-        <v>1443500</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B81" t="s">
-        <v>179</v>
-      </c>
-      <c r="C81">
-        <v>2008</v>
-      </c>
-      <c r="D81" s="49">
-        <v>1600913</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B82" t="s">
-        <v>179</v>
-      </c>
-      <c r="C82">
-        <v>2009</v>
-      </c>
-      <c r="D82" s="49">
-        <v>1458111</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B83" t="s">
-        <v>180</v>
-      </c>
-      <c r="C83">
-        <v>2000</v>
-      </c>
-      <c r="D83" s="49">
-        <v>1107248</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B84" t="s">
-        <v>180</v>
-      </c>
-      <c r="C84">
-        <v>2001</v>
-      </c>
-      <c r="D84" s="49">
-        <v>1124668</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B85" t="s">
-        <v>180</v>
-      </c>
-      <c r="C85">
-        <v>2002</v>
-      </c>
-      <c r="D85" s="49">
-        <v>1229515</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B86" t="s">
-        <v>180</v>
-      </c>
-      <c r="C86">
-        <v>2003</v>
-      </c>
-      <c r="D86" s="49">
-        <v>1517402</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B87" t="s">
-        <v>180</v>
-      </c>
-      <c r="C87">
-        <v>2004</v>
-      </c>
-      <c r="D87" s="49">
-        <v>1737800</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B88" t="s">
-        <v>180</v>
-      </c>
-      <c r="C88">
-        <v>2005</v>
-      </c>
-      <c r="D88" s="49">
-        <v>1789378</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B89" t="s">
-        <v>180</v>
-      </c>
-      <c r="C89">
-        <v>2006</v>
-      </c>
-      <c r="D89" s="49">
-        <v>1874722</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B90" t="s">
-        <v>180</v>
-      </c>
-      <c r="C90">
-        <v>2007</v>
-      </c>
-      <c r="D90" s="49">
-        <v>2130241</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B91" t="s">
-        <v>180</v>
-      </c>
-      <c r="C91">
-        <v>2008</v>
-      </c>
-      <c r="D91" s="49">
-        <v>2318162</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B92" t="s">
-        <v>180</v>
-      </c>
-      <c r="C92">
-        <v>2009</v>
-      </c>
-      <c r="D92" s="49">
-        <v>2116627</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B93" t="s">
-        <v>181</v>
-      </c>
-      <c r="C93">
-        <v>2000</v>
-      </c>
-      <c r="D93" s="49">
-        <v>739451</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B94" t="s">
-        <v>181</v>
-      </c>
-      <c r="C94">
-        <v>2001</v>
-      </c>
-      <c r="D94" s="49">
-        <v>732735</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B95" t="s">
-        <v>181</v>
-      </c>
-      <c r="C95">
-        <v>2002</v>
-      </c>
-      <c r="D95" s="49">
-        <v>752523</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B96" t="s">
-        <v>181</v>
-      </c>
-      <c r="C96">
-        <v>2003</v>
-      </c>
-      <c r="D96" s="49">
-        <v>887782</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B97" t="s">
-        <v>181</v>
-      </c>
-      <c r="C97">
-        <v>2004</v>
-      </c>
-      <c r="D97" s="49">
-        <v>1018386</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B98" t="s">
-        <v>181</v>
-      </c>
-      <c r="C98">
-        <v>2005</v>
-      </c>
-      <c r="D98" s="49">
-        <v>1164179</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B99" t="s">
-        <v>181</v>
-      </c>
-      <c r="C99">
-        <v>2006</v>
-      </c>
-      <c r="D99" s="49">
-        <v>1310795</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B100" t="s">
-        <v>181</v>
-      </c>
-      <c r="C100">
-        <v>2007</v>
-      </c>
-      <c r="D100" s="49">
-        <v>1457873</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B101" t="s">
-        <v>181</v>
-      </c>
-      <c r="C101">
-        <v>2008</v>
-      </c>
-      <c r="D101" s="49">
-        <v>1542561</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B102" t="s">
-        <v>181</v>
-      </c>
-      <c r="C102">
-        <v>2009</v>
-      </c>
-      <c r="D102" s="49">
-        <v>1370839</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B103" t="s">
-        <v>182</v>
-      </c>
-      <c r="C103">
-        <v>2000</v>
-      </c>
-      <c r="D103" s="49">
-        <v>1198477</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B104" t="s">
-        <v>182</v>
-      </c>
-      <c r="C104">
-        <v>2001</v>
-      </c>
-      <c r="D104" s="49">
-        <v>1324814</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B105" t="s">
-        <v>182</v>
-      </c>
-      <c r="C105">
-        <v>2002</v>
-      </c>
-      <c r="D105" s="49">
-        <v>1453833</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B106" t="s">
-        <v>182</v>
-      </c>
-      <c r="C106">
-        <v>2003</v>
-      </c>
-      <c r="D106" s="49">
-        <v>1640961</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B107" t="s">
-        <v>182</v>
-      </c>
-      <c r="C107">
-        <v>2004</v>
-      </c>
-      <c r="D107" s="49">
-        <v>1931646</v>
-      </c>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B108" t="s">
-        <v>182</v>
-      </c>
-      <c r="C108">
-        <v>2005</v>
-      </c>
-      <c r="D108" s="49">
-        <v>2256919</v>
-      </c>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B109" t="s">
-        <v>182</v>
-      </c>
-      <c r="C109">
-        <v>2006</v>
-      </c>
-      <c r="D109" s="49">
-        <v>2712917</v>
-      </c>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B110" t="s">
-        <v>182</v>
-      </c>
-      <c r="C110">
-        <v>2007</v>
-      </c>
-      <c r="D110" s="49">
-        <v>3494235</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B111" t="s">
-        <v>182</v>
-      </c>
-      <c r="C111">
-        <v>2008</v>
-      </c>
-      <c r="D111" s="49">
-        <v>4519951</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B112" t="s">
-        <v>182</v>
-      </c>
-      <c r="C112">
-        <v>2009</v>
-      </c>
-      <c r="D112" s="49">
-        <v>4990526</v>
-      </c>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B113" t="s">
-        <v>183</v>
-      </c>
-      <c r="C113">
-        <v>2000</v>
-      </c>
-      <c r="D113" s="49">
-        <v>692029</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B114" t="s">
-        <v>183</v>
-      </c>
-      <c r="C114">
-        <v>2001</v>
-      </c>
-      <c r="D114" s="49">
-        <v>733453</v>
-      </c>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B115" t="s">
-        <v>183</v>
-      </c>
-      <c r="C115">
-        <v>2002</v>
-      </c>
-      <c r="D115" s="49">
-        <v>750450</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B116" t="s">
-        <v>183</v>
-      </c>
-      <c r="C116">
-        <v>2003</v>
-      </c>
-      <c r="D116" s="49">
-        <v>722182</v>
-      </c>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B117" t="s">
-        <v>183</v>
-      </c>
-      <c r="C117">
-        <v>2004</v>
-      </c>
-      <c r="D117" s="49">
-        <v>774591</v>
-      </c>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B118" t="s">
-        <v>183</v>
-      </c>
-      <c r="C118">
-        <v>2005</v>
-      </c>
-      <c r="D118" s="49">
-        <v>869718</v>
-      </c>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B119" t="s">
-        <v>183</v>
-      </c>
-      <c r="C119">
-        <v>2006</v>
-      </c>
-      <c r="D119" s="49">
-        <v>965774</v>
-      </c>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B120" t="s">
-        <v>183</v>
-      </c>
-      <c r="C120">
-        <v>2007</v>
-      </c>
-      <c r="D120" s="49">
-        <v>1042687</v>
-      </c>
-    </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B121" t="s">
-        <v>183</v>
-      </c>
-      <c r="C121">
-        <v>2008</v>
-      </c>
-      <c r="D121" s="49">
-        <v>1100673</v>
-      </c>
-    </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B122" t="s">
-        <v>183</v>
-      </c>
-      <c r="C122">
-        <v>2009</v>
-      </c>
-      <c r="D122" s="49">
-        <v>894566</v>
-      </c>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B123" t="s">
-        <v>184</v>
-      </c>
-      <c r="C123">
-        <v>2000</v>
-      </c>
-      <c r="D123" s="49">
-        <v>386204</v>
-      </c>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B124" t="s">
-        <v>184</v>
-      </c>
-      <c r="C124">
-        <v>2001</v>
-      </c>
-      <c r="D124" s="49">
-        <v>400998</v>
-      </c>
-    </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B125" t="s">
-        <v>184</v>
-      </c>
-      <c r="C125">
-        <v>2002</v>
-      </c>
-      <c r="D125" s="49">
-        <v>439357</v>
-      </c>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B126" t="s">
-        <v>184</v>
-      </c>
-      <c r="C126">
-        <v>2003</v>
-      </c>
-      <c r="D126" s="49">
-        <v>539343</v>
-      </c>
-    </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B127" t="s">
-        <v>184</v>
-      </c>
-      <c r="C127">
-        <v>2004</v>
-      </c>
-      <c r="D127" s="49">
-        <v>610691</v>
-      </c>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B128" t="s">
-        <v>184</v>
-      </c>
-      <c r="C128">
-        <v>2005</v>
-      </c>
-      <c r="D128" s="49">
-        <v>639579</v>
-      </c>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B129" t="s">
-        <v>184</v>
-      </c>
-      <c r="C129">
-        <v>2006</v>
-      </c>
-      <c r="D129" s="49">
-        <v>678321</v>
-      </c>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B130" t="s">
-        <v>184</v>
-      </c>
-      <c r="C130">
-        <v>2007</v>
-      </c>
-      <c r="D130" s="49">
-        <v>783692</v>
-      </c>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B131" t="s">
-        <v>184</v>
-      </c>
-      <c r="C131">
-        <v>2008</v>
-      </c>
-      <c r="D131" s="49">
-        <v>874906</v>
-      </c>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B132" t="s">
-        <v>184</v>
-      </c>
-      <c r="C132">
-        <v>2009</v>
-      </c>
-      <c r="D132" s="49">
-        <v>798400</v>
-      </c>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B133" t="s">
-        <v>185</v>
-      </c>
-      <c r="C133">
-        <v>2000</v>
-      </c>
-      <c r="D133" s="49">
-        <v>171263</v>
-      </c>
-    </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B134" t="s">
-        <v>185</v>
-      </c>
-      <c r="C134">
-        <v>2001</v>
-      </c>
-      <c r="D134" s="49">
-        <v>190421</v>
-      </c>
-    </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B135" t="s">
-        <v>185</v>
-      </c>
-      <c r="C135">
-        <v>2002</v>
-      </c>
-      <c r="D135" s="49">
-        <v>198205</v>
-      </c>
-    </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B136" t="s">
-        <v>185</v>
-      </c>
-      <c r="C136">
-        <v>2003</v>
-      </c>
-      <c r="D136" s="49">
-        <v>216811</v>
-      </c>
-    </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B137" t="s">
-        <v>185</v>
-      </c>
-      <c r="C137">
-        <v>2004</v>
-      </c>
-      <c r="D137" s="49">
-        <v>253021</v>
-      </c>
-    </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B138" t="s">
-        <v>185</v>
-      </c>
-      <c r="C138">
-        <v>2005</v>
-      </c>
-      <c r="D138" s="49">
-        <v>303976</v>
-      </c>
-    </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B139" t="s">
-        <v>185</v>
-      </c>
-      <c r="C139">
-        <v>2006</v>
-      </c>
-      <c r="D139" s="49">
-        <v>341670</v>
-      </c>
-    </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B140" t="s">
-        <v>185</v>
-      </c>
-      <c r="C140">
-        <v>2007</v>
-      </c>
-      <c r="D140" s="49">
-        <v>425321</v>
-      </c>
-    </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B141" t="s">
-        <v>185</v>
-      </c>
-      <c r="C141">
-        <v>2008</v>
-      </c>
-      <c r="D141" s="49">
-        <v>529432</v>
-      </c>
-    </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B142" t="s">
-        <v>185</v>
-      </c>
-      <c r="C142">
-        <v>2009</v>
-      </c>
-      <c r="D142" s="49">
-        <v>431457</v>
-      </c>
-    </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B143" t="s">
-        <v>186</v>
-      </c>
-      <c r="C143">
-        <v>2000</v>
-      </c>
-      <c r="D143" s="49">
-        <v>259702</v>
-      </c>
-    </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B144" t="s">
-        <v>186</v>
-      </c>
-      <c r="C144">
-        <v>2001</v>
-      </c>
-      <c r="D144" s="49">
-        <v>306583</v>
-      </c>
-    </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B145" t="s">
-        <v>186</v>
-      </c>
-      <c r="C145">
-        <v>2002</v>
-      </c>
-      <c r="D145" s="49">
-        <v>345125</v>
-      </c>
-    </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B146" t="s">
-        <v>186</v>
-      </c>
-      <c r="C146">
-        <v>2003</v>
-      </c>
-      <c r="D146" s="49">
-        <v>430289</v>
-      </c>
-    </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B147" t="s">
-        <v>186</v>
-      </c>
-      <c r="C147">
-        <v>2004</v>
-      </c>
-      <c r="D147" s="49">
-        <v>591177</v>
-      </c>
-    </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B148" t="s">
-        <v>186</v>
-      </c>
-      <c r="C148">
-        <v>2005</v>
-      </c>
-      <c r="D148" s="49">
-        <v>763704</v>
-      </c>
-    </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B149" t="s">
-        <v>186</v>
-      </c>
-      <c r="C149">
-        <v>2006</v>
-      </c>
-      <c r="D149" s="49">
-        <v>989932</v>
-      </c>
-    </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B150" t="s">
-        <v>186</v>
-      </c>
-      <c r="C150">
-        <v>2007</v>
-      </c>
-      <c r="D150" s="49">
-        <v>1299703</v>
-      </c>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B151" t="s">
-        <v>186</v>
-      </c>
-      <c r="C151">
-        <v>2008</v>
-      </c>
-      <c r="D151" s="49">
-        <v>1660846</v>
-      </c>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B152" t="s">
-        <v>186</v>
-      </c>
-      <c r="C152">
-        <v>2009</v>
-      </c>
-      <c r="D152" s="49">
-        <v>1222645</v>
-      </c>
-    </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B153" t="s">
-        <v>187</v>
-      </c>
-      <c r="C153">
-        <v>2000</v>
-      </c>
-      <c r="D153" s="49">
-        <v>10289725</v>
-      </c>
-    </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B154" t="s">
-        <v>187</v>
-      </c>
-      <c r="C154">
-        <v>2001</v>
-      </c>
-      <c r="D154" s="49">
-        <v>10625275</v>
-      </c>
-    </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B155" t="s">
-        <v>187</v>
-      </c>
-      <c r="C155">
-        <v>2002</v>
-      </c>
-      <c r="D155" s="49">
-        <v>10980200</v>
-      </c>
-    </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B156" t="s">
-        <v>187</v>
-      </c>
-      <c r="C156">
-        <v>2003</v>
-      </c>
-      <c r="D156" s="49">
-        <v>11512275</v>
-      </c>
-    </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B157" t="s">
-        <v>187</v>
-      </c>
-      <c r="C157">
-        <v>2004</v>
-      </c>
-      <c r="D157" s="49">
-        <v>12277025</v>
-      </c>
-    </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B158" t="s">
-        <v>187</v>
-      </c>
-      <c r="C158">
-        <v>2005</v>
-      </c>
-      <c r="D158" s="49">
-        <v>13095425</v>
-      </c>
-    </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B159" t="s">
-        <v>187</v>
-      </c>
-      <c r="C159">
-        <v>2006</v>
-      </c>
-      <c r="D159" s="49">
-        <v>13857900</v>
-      </c>
-    </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B160" t="s">
-        <v>187</v>
-      </c>
-      <c r="C160">
-        <v>2007</v>
-      </c>
-      <c r="D160" s="49">
-        <v>14480350</v>
-      </c>
-    </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B161" t="s">
-        <v>187</v>
-      </c>
-      <c r="C161">
-        <v>2008</v>
-      </c>
-      <c r="D161" s="49">
-        <v>14720250</v>
-      </c>
-    </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B162" t="s">
-        <v>187</v>
-      </c>
-      <c r="C162">
-        <v>2009</v>
-      </c>
-      <c r="D162" s="49">
-        <v>14417950</v>
-      </c>
-    </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B163" t="s">
-        <v>188</v>
-      </c>
-      <c r="C163">
-        <v>2000</v>
-      </c>
-      <c r="D163" s="49">
-        <v>266560</v>
-      </c>
-    </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B164" t="s">
-        <v>188</v>
-      </c>
-      <c r="C164">
-        <v>2001</v>
-      </c>
-      <c r="D164" s="49">
-        <v>196007</v>
-      </c>
-    </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B165" t="s">
-        <v>188</v>
-      </c>
-      <c r="C165">
-        <v>2002</v>
-      </c>
-      <c r="D165" s="49">
-        <v>232530</v>
-      </c>
-    </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B166" t="s">
-        <v>188</v>
-      </c>
-      <c r="C166">
-        <v>2003</v>
-      </c>
-      <c r="D166" s="49">
-        <v>303008</v>
-      </c>
-    </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B167" t="s">
-        <v>188</v>
-      </c>
-      <c r="C167">
-        <v>2004</v>
-      </c>
-      <c r="D167" s="49">
-        <v>392156</v>
-      </c>
-    </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B168" t="s">
-        <v>188</v>
-      </c>
-      <c r="C168">
-        <v>2005</v>
-      </c>
-      <c r="D168" s="49">
-        <v>482986</v>
-      </c>
-    </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B169" t="s">
-        <v>188</v>
-      </c>
-      <c r="C169">
-        <v>2006</v>
-      </c>
-      <c r="D169" s="49">
-        <v>530917</v>
-      </c>
-    </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B170" t="s">
-        <v>188</v>
-      </c>
-      <c r="C170">
-        <v>2007</v>
-      </c>
-      <c r="D170" s="49">
-        <v>647140</v>
-      </c>
-    </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B171" t="s">
-        <v>188</v>
-      </c>
-      <c r="C171">
-        <v>2008</v>
-      </c>
-      <c r="D171" s="49">
-        <v>730325</v>
-      </c>
-    </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B172" t="s">
-        <v>188</v>
-      </c>
-      <c r="C172">
-        <v>2009</v>
-      </c>
-      <c r="D172" s="49">
-        <v>614570</v>
-      </c>
-    </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B173" t="s">
-        <v>189</v>
-      </c>
-      <c r="C173">
-        <v>2000</v>
-      </c>
-      <c r="D173" s="49">
-        <v>1330224</v>
-      </c>
-    </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B174" t="s">
-        <v>189</v>
-      </c>
-      <c r="C174">
-        <v>2001</v>
-      </c>
-      <c r="D174" s="49">
-        <v>1339453</v>
-      </c>
-    </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B175" t="s">
-        <v>189</v>
-      </c>
-      <c r="C175">
-        <v>2002</v>
-      </c>
-      <c r="D175" s="49">
-        <v>1457171</v>
-      </c>
-    </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B176" t="s">
-        <v>189</v>
-      </c>
-      <c r="C176">
-        <v>2003</v>
-      </c>
-      <c r="D176" s="49">
-        <v>1795644</v>
-      </c>
-    </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B177" t="s">
-        <v>189</v>
-      </c>
-      <c r="C177">
-        <v>2004</v>
-      </c>
-      <c r="D177" s="49">
-        <v>2058380</v>
-      </c>
-    </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B178" t="s">
-        <v>189</v>
-      </c>
-      <c r="C178">
-        <v>2005</v>
-      </c>
-      <c r="D178" s="49">
-        <v>2140266</v>
-      </c>
-    </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B179" t="s">
-        <v>189</v>
-      </c>
-      <c r="C179">
-        <v>2006</v>
-      </c>
-      <c r="D179" s="49">
-        <v>2257802</v>
-      </c>
-    </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B180" t="s">
-        <v>189</v>
-      </c>
-      <c r="C180">
-        <v>2007</v>
-      </c>
-      <c r="D180" s="49">
-        <v>2586104</v>
-      </c>
-    </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B181" t="s">
-        <v>189</v>
-      </c>
-      <c r="C181">
-        <v>2008</v>
-      </c>
-      <c r="D181" s="49">
-        <v>2845111</v>
-      </c>
-    </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B182" t="s">
-        <v>189</v>
-      </c>
-      <c r="C182">
-        <v>2009</v>
-      </c>
-      <c r="D182" s="49">
-        <v>2626486</v>
-      </c>
-    </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B183" t="s">
-        <v>190</v>
-      </c>
-      <c r="C183">
-        <v>2000</v>
-      </c>
-      <c r="D183" s="49">
-        <v>256036</v>
-      </c>
-    </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B184" t="s">
-        <v>190</v>
-      </c>
-      <c r="C184">
-        <v>2001</v>
-      </c>
-      <c r="D184" s="49">
-        <v>262645</v>
-      </c>
-    </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B185" t="s">
-        <v>190</v>
-      </c>
-      <c r="C185">
-        <v>2002</v>
-      </c>
-      <c r="D185" s="49">
-        <v>286657</v>
-      </c>
-    </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B186" t="s">
-        <v>190</v>
-      </c>
-      <c r="C186">
-        <v>2003</v>
-      </c>
-      <c r="D186" s="49">
-        <v>334587</v>
-      </c>
-    </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B187" t="s">
-        <v>190</v>
-      </c>
-      <c r="C187">
-        <v>2004</v>
-      </c>
-      <c r="D187" s="49">
-        <v>374226</v>
-      </c>
-    </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B188" t="s">
-        <v>190</v>
-      </c>
-      <c r="C188">
-        <v>2005</v>
-      </c>
-      <c r="D188" s="49">
-        <v>384755</v>
-      </c>
-    </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B189" t="s">
-        <v>190</v>
-      </c>
-      <c r="C189">
-        <v>2006</v>
-      </c>
-      <c r="D189" s="49">
-        <v>405183</v>
-      </c>
-    </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B190" t="s">
-        <v>190</v>
-      </c>
-      <c r="C190">
-        <v>2007</v>
-      </c>
-      <c r="D190" s="49">
-        <v>450530</v>
-      </c>
-    </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B191" t="s">
-        <v>190</v>
-      </c>
-      <c r="C191">
-        <v>2008</v>
-      </c>
-      <c r="D191" s="49">
-        <v>524289</v>
-      </c>
-    </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B192" t="s">
-        <v>190</v>
-      </c>
-      <c r="C192">
-        <v>2009</v>
-      </c>
-      <c r="D192" s="49">
-        <v>509466</v>
-      </c>
-    </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B193" t="s">
-        <v>191</v>
-      </c>
-      <c r="C193">
-        <v>2000</v>
-      </c>
-      <c r="D193" s="49">
-        <v>533385</v>
-      </c>
-    </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B194" t="s">
-        <v>191</v>
-      </c>
-      <c r="C194">
-        <v>2001</v>
-      </c>
-      <c r="D194" s="49">
-        <v>504584</v>
-      </c>
-    </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B195" t="s">
-        <v>191</v>
-      </c>
-      <c r="C195">
-        <v>2002</v>
-      </c>
-      <c r="D195" s="49">
-        <v>575930</v>
-      </c>
-    </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B196" t="s">
-        <v>191</v>
-      </c>
-      <c r="C196">
-        <v>2003</v>
-      </c>
-      <c r="D196" s="49">
-        <v>643760</v>
-      </c>
-    </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B197" t="s">
-        <v>191</v>
-      </c>
-      <c r="C197">
-        <v>2004</v>
-      </c>
-      <c r="D197" s="49">
-        <v>721976</v>
-      </c>
-    </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B198" t="s">
-        <v>191</v>
-      </c>
-      <c r="C198">
-        <v>2005</v>
-      </c>
-      <c r="D198" s="49">
-        <v>844866</v>
-      </c>
-    </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B199" t="s">
-        <v>191</v>
-      </c>
-      <c r="C199">
-        <v>2006</v>
-      </c>
-      <c r="D199" s="49">
-        <v>951773</v>
-      </c>
-    </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B200" t="s">
-        <v>191</v>
-      </c>
-      <c r="C200">
-        <v>2007</v>
-      </c>
-      <c r="D200" s="49">
-        <v>1049239</v>
-      </c>
-    </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B201" t="s">
-        <v>191</v>
-      </c>
-      <c r="C201">
-        <v>2008</v>
-      </c>
-      <c r="D201" s="49">
-        <v>931405</v>
-      </c>
-    </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B202" t="s">
-        <v>191</v>
-      </c>
-      <c r="C202">
-        <v>2009</v>
-      </c>
-      <c r="D202" s="49">
-        <v>834060</v>
-      </c>
-    </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B203" t="s">
-        <v>192</v>
-      </c>
-      <c r="C203">
-        <v>2000</v>
-      </c>
-      <c r="D203" s="49">
-        <v>4731199</v>
-      </c>
-    </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B204" t="s">
-        <v>192</v>
-      </c>
-      <c r="C204">
-        <v>2001</v>
-      </c>
-      <c r="D204" s="49">
-        <v>4159859</v>
-      </c>
-    </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B205" t="s">
-        <v>192</v>
-      </c>
-      <c r="C205">
-        <v>2002</v>
-      </c>
-      <c r="D205" s="49">
-        <v>3980819</v>
-      </c>
-    </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B206" t="s">
-        <v>192</v>
-      </c>
-      <c r="C206">
-        <v>2003</v>
-      </c>
-      <c r="D206" s="49">
-        <v>4302940</v>
-      </c>
-    </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B207" t="s">
-        <v>192</v>
-      </c>
-      <c r="C207">
-        <v>2004</v>
-      </c>
-      <c r="D207" s="49">
-        <v>4655823</v>
-      </c>
-    </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B208" t="s">
-        <v>192</v>
-      </c>
-      <c r="C208">
-        <v>2005</v>
-      </c>
-      <c r="D208" s="49">
-        <v>4571867</v>
-      </c>
-    </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B209" t="s">
-        <v>192</v>
-      </c>
-      <c r="C209">
-        <v>2006</v>
-      </c>
-      <c r="D209" s="49">
-        <v>4356750</v>
-      </c>
-    </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B210" t="s">
-        <v>192</v>
-      </c>
-      <c r="C210">
-        <v>2007</v>
-      </c>
-      <c r="D210" s="49">
-        <v>4356347</v>
-      </c>
-    </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B211" t="s">
-        <v>192</v>
-      </c>
-      <c r="C211">
-        <v>2008</v>
-      </c>
-      <c r="D211" s="49">
-        <v>4849185</v>
-      </c>
-    </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B212" t="s">
-        <v>192</v>
-      </c>
-      <c r="C212">
-        <v>2009</v>
-      </c>
-      <c r="D212" s="49">
-        <v>5035141</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D0A737-8873-43C0-AA6D-8F4493537365}">
   <dimension ref="B1:H7"/>
   <sheetViews>
@@ -8387,7 +5949,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="49" t="s">
         <v>32</v>
       </c>
       <c r="E1" t="s">
@@ -8398,11 +5960,11 @@
       <c r="B2" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="64" t="s">
         <v>246</v>
       </c>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
       <c r="H2">
         <f>COUNTIF(B2:B7,"*ов")</f>
         <v>3</v>
@@ -8412,11 +5974,11 @@
       <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="64" t="s">
         <v>251</v>
       </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
       <c r="H3">
         <f>COUNTIF(B2:B7, "*ер")</f>
         <v>2</v>
@@ -8426,11 +5988,11 @@
       <c r="B4" t="s">
         <v>245</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="64" t="s">
         <v>252</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
       <c r="H4">
         <f>COUNTIF(B2:B7, "*о*")</f>
         <v>4</v>
@@ -8440,11 +6002,11 @@
       <c r="B5" t="s">
         <v>247</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="65" t="s">
         <v>253</v>
       </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
       <c r="H5">
         <f>COUNTIF(B2:B7, "????ов")</f>
         <v>2</v>
@@ -8467,6 +6029,396 @@
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E5:G5"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F19E0B-5665-4790-948B-04E111A008CF}">
+  <dimension ref="B2:I21"/>
+  <sheetViews>
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="46.5" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="1" max="1" width="1.375" customWidth="1"/>
+    <col min="2" max="2" width="25.875" customWidth="1"/>
+    <col min="3" max="3" width="38.08203125" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
+    <col min="7" max="7" width="3.875" customWidth="1"/>
+    <col min="8" max="8" width="17.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B2" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>213</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="54">
+        <v>1.289699074074074E-3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H3" t="s">
+        <v>241</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="54">
+        <v>1.2971064814814815E-3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>239</v>
+      </c>
+      <c r="H4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E5" s="54">
+        <v>1.3009259259259259E-3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="54">
+        <v>1.2646990740740741E-3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>238</v>
+      </c>
+      <c r="H6" t="s">
+        <v>243</v>
+      </c>
+      <c r="I6">
+        <f>COUNTIF(F3:F21,I4)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="54">
+        <v>1.2152777777777778E-3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="54">
+        <v>1.276388888888889E-3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>239</v>
+      </c>
+      <c r="H8" t="s">
+        <v>244</v>
+      </c>
+      <c r="I8">
+        <f>COUNTIFS(C3:C21, "*"&amp;I3&amp;"*",F3:F21,I4)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="54">
+        <v>1.2766203703703705E-3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="54">
+        <v>2.1946759259259259E-3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" s="54">
+        <v>2.2077546296296294E-3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12" s="54">
+        <v>2.2105324074074072E-3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" s="54">
+        <v>1.1189814814814814E-3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B14" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" t="s">
+        <v>230</v>
+      </c>
+      <c r="D14" t="s">
+        <v>236</v>
+      </c>
+      <c r="E14" s="54">
+        <v>1.1226851851851851E-3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" t="s">
+        <v>231</v>
+      </c>
+      <c r="D15" t="s">
+        <v>237</v>
+      </c>
+      <c r="E15" s="54">
+        <v>1.1305555555555557E-3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B16" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D16" t="s">
+        <v>237</v>
+      </c>
+      <c r="E16" s="54">
+        <v>1.0560185185185184E-3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.7">
+      <c r="B17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D17" t="s">
+        <v>189</v>
+      </c>
+      <c r="E17" s="54">
+        <v>1.0562499999999999E-3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.7">
+      <c r="B18" t="s">
+        <v>219</v>
+      </c>
+      <c r="C18" t="s">
+        <v>234</v>
+      </c>
+      <c r="D18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" s="54">
+        <v>1.0728009259259258E-3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.7">
+      <c r="B19" t="s">
+        <v>220</v>
+      </c>
+      <c r="C19" t="s">
+        <v>229</v>
+      </c>
+      <c r="D19" t="s">
+        <v>190</v>
+      </c>
+      <c r="E19" s="54">
+        <v>1.0405092592592593E-3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.7">
+      <c r="B20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" t="s">
+        <v>230</v>
+      </c>
+      <c r="D20" t="s">
+        <v>236</v>
+      </c>
+      <c r="E20" s="54">
+        <v>1.0503472222222223E-3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.7">
+      <c r="B21" t="s">
+        <v>220</v>
+      </c>
+      <c r="C21" t="s">
+        <v>235</v>
+      </c>
+      <c r="D21" t="s">
+        <v>236</v>
+      </c>
+      <c r="E21" s="54">
+        <v>1.0688657407407407E-3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8767,17 +6719,17 @@
       </c>
     </row>
     <row r="11" spans="2:10" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="46"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="61"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B12" s="3" t="s">
@@ -9063,396 +7015,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F19E0B-5665-4790-948B-04E111A008CF}">
-  <dimension ref="A2:I21"/>
-  <sheetViews>
-    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="46.5" x14ac:dyDescent="0.7"/>
-  <cols>
-    <col min="1" max="1" width="1.375" customWidth="1"/>
-    <col min="2" max="2" width="25.875" customWidth="1"/>
-    <col min="3" max="3" width="38.08203125" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
-    <col min="6" max="6" width="7.625" customWidth="1"/>
-    <col min="7" max="7" width="3.875" customWidth="1"/>
-    <col min="8" max="8" width="17.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B2" s="62" t="s">
-        <v>211</v>
-      </c>
-      <c r="C2" s="62" t="s">
-        <v>212</v>
-      </c>
-      <c r="D2" s="62" t="s">
-        <v>166</v>
-      </c>
-      <c r="E2" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="F2" s="62" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.7">
-      <c r="B3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E3" s="60">
-        <v>1.289699074074074E-3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>238</v>
-      </c>
-      <c r="H3" t="s">
-        <v>241</v>
-      </c>
-      <c r="I3" s="61" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.7">
-      <c r="B4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E4" s="60">
-        <v>1.2971064814814815E-3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>239</v>
-      </c>
-      <c r="H4" t="s">
-        <v>214</v>
-      </c>
-      <c r="I4" s="61" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.7">
-      <c r="B5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C5" t="s">
-        <v>223</v>
-      </c>
-      <c r="D5" t="s">
-        <v>236</v>
-      </c>
-      <c r="E5" s="60">
-        <v>1.3009259259259259E-3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.7">
-      <c r="B6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E6" s="60">
-        <v>1.2646990740740741E-3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>238</v>
-      </c>
-      <c r="H6" t="s">
-        <v>243</v>
-      </c>
-      <c r="I6">
-        <f>COUNTIF(F3:F21,I4)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.7">
-      <c r="B7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C7" t="s">
-        <v>225</v>
-      </c>
-      <c r="D7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E7" s="60">
-        <v>1.2152777777777778E-3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.7">
-      <c r="B8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C8" t="s">
-        <v>225</v>
-      </c>
-      <c r="D8" t="s">
-        <v>180</v>
-      </c>
-      <c r="E8" s="60">
-        <v>1.276388888888889E-3</v>
-      </c>
-      <c r="F8" t="s">
-        <v>239</v>
-      </c>
-      <c r="H8" t="s">
-        <v>244</v>
-      </c>
-      <c r="I8">
-        <f>COUNTIFS(C3:C21, "*"&amp;I3&amp;"*",F3:F21,I4)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.7">
-      <c r="B9" t="s">
-        <v>216</v>
-      </c>
-      <c r="C9" t="s">
-        <v>226</v>
-      </c>
-      <c r="D9" t="s">
-        <v>180</v>
-      </c>
-      <c r="E9" s="60">
-        <v>1.2766203703703705E-3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.7">
-      <c r="B10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C10" t="s">
-        <v>225</v>
-      </c>
-      <c r="D10" t="s">
-        <v>180</v>
-      </c>
-      <c r="E10" s="60">
-        <v>2.1946759259259259E-3</v>
-      </c>
-      <c r="F10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.7">
-      <c r="B11" t="s">
-        <v>217</v>
-      </c>
-      <c r="C11" t="s">
-        <v>227</v>
-      </c>
-      <c r="D11" t="s">
-        <v>190</v>
-      </c>
-      <c r="E11" s="60">
-        <v>2.2077546296296294E-3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.7">
-      <c r="B12" t="s">
-        <v>217</v>
-      </c>
-      <c r="C12" t="s">
-        <v>228</v>
-      </c>
-      <c r="D12" t="s">
-        <v>190</v>
-      </c>
-      <c r="E12" s="60">
-        <v>2.2105324074074072E-3</v>
-      </c>
-      <c r="F12" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.7">
-      <c r="B13" t="s">
-        <v>218</v>
-      </c>
-      <c r="C13" t="s">
-        <v>229</v>
-      </c>
-      <c r="D13" t="s">
-        <v>190</v>
-      </c>
-      <c r="E13" s="60">
-        <v>1.1189814814814814E-3</v>
-      </c>
-      <c r="F13" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.7">
-      <c r="B14" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D14" t="s">
-        <v>236</v>
-      </c>
-      <c r="E14" s="60">
-        <v>1.1226851851851851E-3</v>
-      </c>
-      <c r="F14" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.7">
-      <c r="B15" t="s">
-        <v>218</v>
-      </c>
-      <c r="C15" t="s">
-        <v>231</v>
-      </c>
-      <c r="D15" t="s">
-        <v>237</v>
-      </c>
-      <c r="E15" s="60">
-        <v>1.1305555555555557E-3</v>
-      </c>
-      <c r="F15" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.7">
-      <c r="B16" t="s">
-        <v>219</v>
-      </c>
-      <c r="C16" t="s">
-        <v>232</v>
-      </c>
-      <c r="D16" t="s">
-        <v>237</v>
-      </c>
-      <c r="E16" s="60">
-        <v>1.0560185185185184E-3</v>
-      </c>
-      <c r="F16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.7">
-      <c r="B17" t="s">
-        <v>219</v>
-      </c>
-      <c r="C17" t="s">
-        <v>233</v>
-      </c>
-      <c r="D17" t="s">
-        <v>189</v>
-      </c>
-      <c r="E17" s="60">
-        <v>1.0562499999999999E-3</v>
-      </c>
-      <c r="F17" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.7">
-      <c r="B18" t="s">
-        <v>219</v>
-      </c>
-      <c r="C18" t="s">
-        <v>234</v>
-      </c>
-      <c r="D18" t="s">
-        <v>189</v>
-      </c>
-      <c r="E18" s="60">
-        <v>1.0728009259259258E-3</v>
-      </c>
-      <c r="F18" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.7">
-      <c r="B19" t="s">
-        <v>220</v>
-      </c>
-      <c r="C19" t="s">
-        <v>229</v>
-      </c>
-      <c r="D19" t="s">
-        <v>190</v>
-      </c>
-      <c r="E19" s="60">
-        <v>1.0405092592592593E-3</v>
-      </c>
-      <c r="F19" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.7">
-      <c r="B20" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" t="s">
-        <v>230</v>
-      </c>
-      <c r="D20" t="s">
-        <v>236</v>
-      </c>
-      <c r="E20" s="60">
-        <v>1.0503472222222223E-3</v>
-      </c>
-      <c r="F20" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.7">
-      <c r="B21" t="s">
-        <v>220</v>
-      </c>
-      <c r="C21" t="s">
-        <v>235</v>
-      </c>
-      <c r="D21" t="s">
-        <v>236</v>
-      </c>
-      <c r="E21" s="60">
-        <v>1.0688657407407407E-3</v>
-      </c>
-      <c r="F21" t="s">
-        <v>240</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B142A7-EC0C-4D08-8E93-71C7F6A4105C}">
   <dimension ref="B2:I21"/>
   <sheetViews>
@@ -9474,19 +7036,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.7">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="55" t="s">
         <v>213</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="55" t="s">
         <v>214</v>
       </c>
     </row>
@@ -9500,7 +7062,7 @@
       <c r="D3" t="s">
         <v>190</v>
       </c>
-      <c r="E3" s="60">
+      <c r="E3" s="54">
         <v>1.289699074074074E-3</v>
       </c>
       <c r="F3" t="s">
@@ -9509,7 +7071,7 @@
       <c r="H3" t="s">
         <v>166</v>
       </c>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="47" t="s">
         <v>236</v>
       </c>
     </row>
@@ -9523,7 +7085,7 @@
       <c r="D4" t="s">
         <v>190</v>
       </c>
-      <c r="E4" s="60">
+      <c r="E4" s="54">
         <v>1.2971064814814815E-3</v>
       </c>
       <c r="F4" t="s">
@@ -9540,7 +7102,7 @@
       <c r="D5" t="s">
         <v>236</v>
       </c>
-      <c r="E5" s="60">
+      <c r="E5" s="54">
         <v>1.3009259259259259E-3</v>
       </c>
       <c r="F5" t="s">
@@ -9549,7 +7111,7 @@
       <c r="H5" t="s">
         <v>254</v>
       </c>
-      <c r="I5" s="65">
+      <c r="I5" s="56">
         <f>AVERAGEIF(D3:D21, I3, E3:E21)</f>
         <v>1.1357060185185185E-3</v>
       </c>
@@ -9564,7 +7126,7 @@
       <c r="D6" t="s">
         <v>179</v>
       </c>
-      <c r="E6" s="60">
+      <c r="E6" s="54">
         <v>1.2646990740740741E-3</v>
       </c>
       <c r="F6" t="s">
@@ -9573,7 +7135,7 @@
       <c r="H6" t="s">
         <v>256</v>
       </c>
-      <c r="I6" s="65">
+      <c r="I6" s="56">
         <f>SUMIF(D3:D21, I3,E3:E21)/COUNTIF(D3:D21,I3)</f>
         <v>1.1357060185185185E-3</v>
       </c>
@@ -9588,7 +7150,7 @@
       <c r="D7" t="s">
         <v>180</v>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="54">
         <v>1.2152777777777778E-3</v>
       </c>
       <c r="F7" t="s">
@@ -9605,7 +7167,7 @@
       <c r="D8" t="s">
         <v>180</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="54">
         <v>1.276388888888889E-3</v>
       </c>
       <c r="F8" t="s">
@@ -9622,7 +7184,7 @@
       <c r="D9" t="s">
         <v>180</v>
       </c>
-      <c r="E9" s="60">
+      <c r="E9" s="54">
         <v>1.2766203703703705E-3</v>
       </c>
       <c r="F9" t="s">
@@ -9639,7 +7201,7 @@
       <c r="D10" t="s">
         <v>180</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="54">
         <v>2.1946759259259259E-3</v>
       </c>
       <c r="F10" t="s">
@@ -9656,7 +7218,7 @@
       <c r="D11" t="s">
         <v>190</v>
       </c>
-      <c r="E11" s="60">
+      <c r="E11" s="54">
         <v>2.2077546296296294E-3</v>
       </c>
       <c r="F11" t="s">
@@ -9673,7 +7235,7 @@
       <c r="D12" t="s">
         <v>190</v>
       </c>
-      <c r="E12" s="60">
+      <c r="E12" s="54">
         <v>2.2105324074074072E-3</v>
       </c>
       <c r="F12" t="s">
@@ -9690,7 +7252,7 @@
       <c r="D13" t="s">
         <v>190</v>
       </c>
-      <c r="E13" s="60">
+      <c r="E13" s="54">
         <v>1.1189814814814814E-3</v>
       </c>
       <c r="F13" t="s">
@@ -9707,7 +7269,7 @@
       <c r="D14" t="s">
         <v>236</v>
       </c>
-      <c r="E14" s="60">
+      <c r="E14" s="54">
         <v>1.1226851851851851E-3</v>
       </c>
       <c r="F14" t="s">
@@ -9724,7 +7286,7 @@
       <c r="D15" t="s">
         <v>237</v>
       </c>
-      <c r="E15" s="60">
+      <c r="E15" s="54">
         <v>1.1305555555555557E-3</v>
       </c>
       <c r="F15" t="s">
@@ -9741,7 +7303,7 @@
       <c r="D16" t="s">
         <v>237</v>
       </c>
-      <c r="E16" s="60">
+      <c r="E16" s="54">
         <v>1.0560185185185184E-3</v>
       </c>
       <c r="F16" t="s">
@@ -9758,7 +7320,7 @@
       <c r="D17" t="s">
         <v>189</v>
       </c>
-      <c r="E17" s="60">
+      <c r="E17" s="54">
         <v>1.0562499999999999E-3</v>
       </c>
       <c r="F17" t="s">
@@ -9775,7 +7337,7 @@
       <c r="D18" t="s">
         <v>189</v>
       </c>
-      <c r="E18" s="60">
+      <c r="E18" s="54">
         <v>1.0728009259259258E-3</v>
       </c>
       <c r="F18" t="s">
@@ -9792,7 +7354,7 @@
       <c r="D19" t="s">
         <v>190</v>
       </c>
-      <c r="E19" s="60">
+      <c r="E19" s="54">
         <v>1.0405092592592593E-3</v>
       </c>
       <c r="F19" t="s">
@@ -9809,7 +7371,7 @@
       <c r="D20" t="s">
         <v>236</v>
       </c>
-      <c r="E20" s="60">
+      <c r="E20" s="54">
         <v>1.0503472222222223E-3</v>
       </c>
       <c r="F20" t="s">
@@ -9826,11 +7388,2447 @@
       <c r="D21" t="s">
         <v>236</v>
       </c>
-      <c r="E21" s="60">
+      <c r="E21" s="54">
         <v>1.0688657407407407E-3</v>
       </c>
       <c r="F21" t="s">
         <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCD2088-0D0F-4FF8-8F04-5281FA0DD1EF}">
+  <dimension ref="B2:G212"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="46.5" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="2" max="2" width="11.9140625" customWidth="1"/>
+    <col min="3" max="3" width="10.70703125" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="18.75" customWidth="1"/>
+    <col min="7" max="7" width="14.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.7">
+      <c r="B2" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"&gt;5000000"</f>
+        <v>&gt;5000000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.7">
+      <c r="B3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3">
+        <v>2000</v>
+      </c>
+      <c r="D3" s="44">
+        <v>399594</v>
+      </c>
+      <c r="F3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.7">
+      <c r="B4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4">
+        <v>2001</v>
+      </c>
+      <c r="D4" s="44">
+        <v>377207</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.7">
+      <c r="B5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5">
+        <v>2002</v>
+      </c>
+      <c r="D5" s="44">
+        <v>423676</v>
+      </c>
+      <c r="F5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5">
+        <f>COUNTIF(D3:D212,G2)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.7">
+      <c r="B6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6">
+        <v>2003</v>
+      </c>
+      <c r="D6" s="44">
+        <v>539162</v>
+      </c>
+      <c r="F6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G6">
+        <f>COUNTIF(D3:D212,G3)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.7">
+      <c r="B7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7">
+        <v>2004</v>
+      </c>
+      <c r="D7" s="44">
+        <v>654968</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.7">
+      <c r="B8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8">
+        <v>2005</v>
+      </c>
+      <c r="D8" s="44">
+        <v>730729</v>
+      </c>
+      <c r="F8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G8">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.7">
+      <c r="B9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9">
+        <v>2006</v>
+      </c>
+      <c r="D9" s="44">
+        <v>777933</v>
+      </c>
+      <c r="F9" t="s">
+        <v>206</v>
+      </c>
+      <c r="G9">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.7">
+      <c r="B10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10">
+        <v>2007</v>
+      </c>
+      <c r="D10" s="44">
+        <v>945364</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.7">
+      <c r="B11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11">
+        <v>2008</v>
+      </c>
+      <c r="D11" s="44">
+        <v>1051261</v>
+      </c>
+      <c r="F11" t="s">
+        <v>207</v>
+      </c>
+      <c r="G11">
+        <f>COUNTIF(D3:D212,"&lt;="&amp;G9)</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.7">
+      <c r="B12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12">
+        <v>2009</v>
+      </c>
+      <c r="D12" s="44">
+        <v>993349</v>
+      </c>
+      <c r="F12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G12">
+        <f>COUNTIF(D3:D212, "&lt;"&amp;G8)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.7">
+      <c r="B13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13">
+        <v>2000</v>
+      </c>
+      <c r="D13" s="44">
+        <v>233354</v>
+      </c>
+      <c r="F13" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13">
+        <f>G11-G12</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.7">
+      <c r="B14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14">
+        <v>2001</v>
+      </c>
+      <c r="D14" s="44">
+        <v>232686</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.7">
+      <c r="B15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15">
+        <v>2002</v>
+      </c>
+      <c r="D15" s="44">
+        <v>253689</v>
+      </c>
+      <c r="F15" t="s">
+        <v>210</v>
+      </c>
+      <c r="G15">
+        <f>COUNTIFS(D3:D212, "&gt;="&amp;G8, D3:D212, "&lt;="&amp;G9)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.7">
+      <c r="B16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16">
+        <v>2003</v>
+      </c>
+      <c r="D16" s="44">
+        <v>312285</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.7">
+      <c r="B17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17">
+        <v>2004</v>
+      </c>
+      <c r="D17" s="44">
+        <v>362160</v>
+      </c>
+      <c r="F17" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" s="49" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.7">
+      <c r="B18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18">
+        <v>2005</v>
+      </c>
+      <c r="D18" s="44">
+        <v>378006</v>
+      </c>
+      <c r="F18" t="s">
+        <v>255</v>
+      </c>
+      <c r="G18" s="57">
+        <f>AVERAGEIF(B3:B212,G17,D3:D212)</f>
+        <v>1068445.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.7">
+      <c r="B19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19">
+        <v>2006</v>
+      </c>
+      <c r="D19" s="44">
+        <v>400337</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.7">
+      <c r="B20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20">
+        <v>2007</v>
+      </c>
+      <c r="D20" s="44">
+        <v>460280</v>
+      </c>
+      <c r="F20" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" s="49">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.7">
+      <c r="B21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21">
+        <v>2008</v>
+      </c>
+      <c r="D21" s="44">
+        <v>509765</v>
+      </c>
+      <c r="F21" t="s">
+        <v>255</v>
+      </c>
+      <c r="G21" s="57">
+        <f>AVERAGEIF(C3:C212, G20,D3:D212)</f>
+        <v>1716866.8095238095</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.7">
+      <c r="B22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22">
+        <v>2009</v>
+      </c>
+      <c r="D22" s="44">
+        <v>474580</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.7">
+      <c r="B23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23">
+        <v>2000</v>
+      </c>
+      <c r="D23" s="44">
+        <v>644734</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.7">
+      <c r="B24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24">
+        <v>2001</v>
+      </c>
+      <c r="D24" s="44">
+        <v>554185</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.7">
+      <c r="B25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25">
+        <v>2002</v>
+      </c>
+      <c r="D25" s="44">
+        <v>506043</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.7">
+      <c r="B26" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26">
+        <v>2003</v>
+      </c>
+      <c r="D26" s="44">
+        <v>552383</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.7">
+      <c r="B27" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27">
+        <v>2004</v>
+      </c>
+      <c r="D27" s="44">
+        <v>663734</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.7">
+      <c r="B28" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28">
+        <v>2005</v>
+      </c>
+      <c r="D28" s="44">
+        <v>882043</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.7">
+      <c r="B29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C29">
+        <v>2006</v>
+      </c>
+      <c r="D29" s="44">
+        <v>1089255</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.7">
+      <c r="B30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30">
+        <v>2007</v>
+      </c>
+      <c r="D30" s="44">
+        <v>1366854</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.7">
+      <c r="B31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31">
+        <v>2008</v>
+      </c>
+      <c r="D31" s="44">
+        <v>1653538</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.7">
+      <c r="B32" t="s">
+        <v>174</v>
+      </c>
+      <c r="C32">
+        <v>2009</v>
+      </c>
+      <c r="D32" s="44">
+        <v>1622311</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B33" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33">
+        <v>2000</v>
+      </c>
+      <c r="D33" s="44">
+        <v>1496606</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34">
+        <v>2001</v>
+      </c>
+      <c r="D34" s="44">
+        <v>1485657</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B35" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35">
+        <v>2002</v>
+      </c>
+      <c r="D35" s="44">
+        <v>1623558</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36">
+        <v>2003</v>
+      </c>
+      <c r="D36" s="44">
+        <v>1877117</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B37" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37">
+        <v>2004</v>
+      </c>
+      <c r="D37" s="44">
+        <v>2221915</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B38" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38">
+        <v>2005</v>
+      </c>
+      <c r="D38" s="44">
+        <v>2324184</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B39" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39">
+        <v>2006</v>
+      </c>
+      <c r="D39" s="44">
+        <v>2486598</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B40" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40">
+        <v>2007</v>
+      </c>
+      <c r="D40" s="44">
+        <v>2858176</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B41" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41">
+        <v>2008</v>
+      </c>
+      <c r="D41" s="44">
+        <v>2709573</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B42" t="s">
+        <v>175</v>
+      </c>
+      <c r="C42">
+        <v>2009</v>
+      </c>
+      <c r="D42" s="44">
+        <v>2217427</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B43" t="s">
+        <v>176</v>
+      </c>
+      <c r="C43">
+        <v>2000</v>
+      </c>
+      <c r="D43" s="44">
+        <v>1891934</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B44" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44">
+        <v>2001</v>
+      </c>
+      <c r="D44" s="44">
+        <v>1882511</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B45" t="s">
+        <v>176</v>
+      </c>
+      <c r="C45">
+        <v>2002</v>
+      </c>
+      <c r="D45" s="44">
+        <v>2013691</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B46" t="s">
+        <v>176</v>
+      </c>
+      <c r="C46">
+        <v>2003</v>
+      </c>
+      <c r="D46" s="44">
+        <v>2428452</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B47" t="s">
+        <v>176</v>
+      </c>
+      <c r="C47">
+        <v>2004</v>
+      </c>
+      <c r="D47" s="44">
+        <v>2729923</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B48" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48">
+        <v>2005</v>
+      </c>
+      <c r="D48" s="44">
+        <v>2771057</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B49" t="s">
+        <v>176</v>
+      </c>
+      <c r="C49">
+        <v>2006</v>
+      </c>
+      <c r="D49" s="44">
+        <v>2905445</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B50" t="s">
+        <v>176</v>
+      </c>
+      <c r="C50">
+        <v>2007</v>
+      </c>
+      <c r="D50" s="44">
+        <v>3328589</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B51" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51">
+        <v>2008</v>
+      </c>
+      <c r="D51" s="44">
+        <v>3640727</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B52" t="s">
+        <v>176</v>
+      </c>
+      <c r="C52">
+        <v>2009</v>
+      </c>
+      <c r="D52" s="44">
+        <v>3306780</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B53" t="s">
+        <v>177</v>
+      </c>
+      <c r="C53">
+        <v>2000</v>
+      </c>
+      <c r="D53" s="44">
+        <v>474570</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B54" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54">
+        <v>2001</v>
+      </c>
+      <c r="D54" s="44">
+        <v>492736</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B55" t="s">
+        <v>177</v>
+      </c>
+      <c r="C55">
+        <v>2002</v>
+      </c>
+      <c r="D55" s="44">
+        <v>522715</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B56" t="s">
+        <v>177</v>
+      </c>
+      <c r="C56">
+        <v>2003</v>
+      </c>
+      <c r="D56" s="44">
+        <v>618186</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B57" t="s">
+        <v>177</v>
+      </c>
+      <c r="C57">
+        <v>2004</v>
+      </c>
+      <c r="D57" s="44">
+        <v>721589</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B58" t="s">
+        <v>177</v>
+      </c>
+      <c r="C58">
+        <v>2005</v>
+      </c>
+      <c r="D58" s="44">
+        <v>834218</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B59" t="s">
+        <v>177</v>
+      </c>
+      <c r="C59">
+        <v>2006</v>
+      </c>
+      <c r="D59" s="44">
+        <v>949117</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B60" t="s">
+        <v>177</v>
+      </c>
+      <c r="C60">
+        <v>2007</v>
+      </c>
+      <c r="D60" s="44">
+        <v>1238478</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B61" t="s">
+        <v>177</v>
+      </c>
+      <c r="C61">
+        <v>2008</v>
+      </c>
+      <c r="D61" s="44">
+        <v>1223206</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B62" t="s">
+        <v>177</v>
+      </c>
+      <c r="C62">
+        <v>2009</v>
+      </c>
+      <c r="D62" s="44">
+        <v>1365343</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B63" t="s">
+        <v>178</v>
+      </c>
+      <c r="C63">
+        <v>2000</v>
+      </c>
+      <c r="D63" s="44">
+        <v>165021</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B64" t="s">
+        <v>178</v>
+      </c>
+      <c r="C64">
+        <v>2001</v>
+      </c>
+      <c r="D64" s="44">
+        <v>160447</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B65" t="s">
+        <v>178</v>
+      </c>
+      <c r="C65">
+        <v>2002</v>
+      </c>
+      <c r="D65" s="44">
+        <v>195661</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B66" t="s">
+        <v>178</v>
+      </c>
+      <c r="C66">
+        <v>2003</v>
+      </c>
+      <c r="D66" s="44">
+        <v>234848</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B67" t="s">
+        <v>178</v>
+      </c>
+      <c r="C67">
+        <v>2004</v>
+      </c>
+      <c r="D67" s="44">
+        <v>257032</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B68" t="s">
+        <v>178</v>
+      </c>
+      <c r="C68">
+        <v>2005</v>
+      </c>
+      <c r="D68" s="44">
+        <v>285773</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B69" t="s">
+        <v>178</v>
+      </c>
+      <c r="C69">
+        <v>2006</v>
+      </c>
+      <c r="D69" s="44">
+        <v>364362</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B70" t="s">
+        <v>178</v>
+      </c>
+      <c r="C70">
+        <v>2007</v>
+      </c>
+      <c r="D70" s="44">
+        <v>432183</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B71" t="s">
+        <v>178</v>
+      </c>
+      <c r="C71">
+        <v>2008</v>
+      </c>
+      <c r="D71" s="44">
+        <v>510839</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B72" t="s">
+        <v>178</v>
+      </c>
+      <c r="C72">
+        <v>2009</v>
+      </c>
+      <c r="D72" s="44">
+        <v>538803</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B73" t="s">
+        <v>179</v>
+      </c>
+      <c r="C73">
+        <v>2000</v>
+      </c>
+      <c r="D73" s="44">
+        <v>582048</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B74" t="s">
+        <v>179</v>
+      </c>
+      <c r="C74">
+        <v>2001</v>
+      </c>
+      <c r="D74" s="44">
+        <v>609379</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B75" t="s">
+        <v>179</v>
+      </c>
+      <c r="C75">
+        <v>2002</v>
+      </c>
+      <c r="D75" s="44">
+        <v>688725</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B76" t="s">
+        <v>179</v>
+      </c>
+      <c r="C76">
+        <v>2003</v>
+      </c>
+      <c r="D76" s="44">
+        <v>885531</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B77" t="s">
+        <v>179</v>
+      </c>
+      <c r="C77">
+        <v>2004</v>
+      </c>
+      <c r="D77" s="44">
+        <v>1045984</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B78" t="s">
+        <v>179</v>
+      </c>
+      <c r="C78">
+        <v>2005</v>
+      </c>
+      <c r="D78" s="44">
+        <v>1132763</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B79" t="s">
+        <v>179</v>
+      </c>
+      <c r="C79">
+        <v>2006</v>
+      </c>
+      <c r="D79" s="44">
+        <v>1237501</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B80" t="s">
+        <v>179</v>
+      </c>
+      <c r="C80">
+        <v>2007</v>
+      </c>
+      <c r="D80" s="44">
+        <v>1443500</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B81" t="s">
+        <v>179</v>
+      </c>
+      <c r="C81">
+        <v>2008</v>
+      </c>
+      <c r="D81" s="44">
+        <v>1600913</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B82" t="s">
+        <v>179</v>
+      </c>
+      <c r="C82">
+        <v>2009</v>
+      </c>
+      <c r="D82" s="44">
+        <v>1458111</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B83" t="s">
+        <v>180</v>
+      </c>
+      <c r="C83">
+        <v>2000</v>
+      </c>
+      <c r="D83" s="44">
+        <v>1107248</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B84" t="s">
+        <v>180</v>
+      </c>
+      <c r="C84">
+        <v>2001</v>
+      </c>
+      <c r="D84" s="44">
+        <v>1124668</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B85" t="s">
+        <v>180</v>
+      </c>
+      <c r="C85">
+        <v>2002</v>
+      </c>
+      <c r="D85" s="44">
+        <v>1229515</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B86" t="s">
+        <v>180</v>
+      </c>
+      <c r="C86">
+        <v>2003</v>
+      </c>
+      <c r="D86" s="44">
+        <v>1517402</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B87" t="s">
+        <v>180</v>
+      </c>
+      <c r="C87">
+        <v>2004</v>
+      </c>
+      <c r="D87" s="44">
+        <v>1737800</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B88" t="s">
+        <v>180</v>
+      </c>
+      <c r="C88">
+        <v>2005</v>
+      </c>
+      <c r="D88" s="44">
+        <v>1789378</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B89" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89">
+        <v>2006</v>
+      </c>
+      <c r="D89" s="44">
+        <v>1874722</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B90" t="s">
+        <v>180</v>
+      </c>
+      <c r="C90">
+        <v>2007</v>
+      </c>
+      <c r="D90" s="44">
+        <v>2130241</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B91" t="s">
+        <v>180</v>
+      </c>
+      <c r="C91">
+        <v>2008</v>
+      </c>
+      <c r="D91" s="44">
+        <v>2318162</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B92" t="s">
+        <v>180</v>
+      </c>
+      <c r="C92">
+        <v>2009</v>
+      </c>
+      <c r="D92" s="44">
+        <v>2116627</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B93" t="s">
+        <v>181</v>
+      </c>
+      <c r="C93">
+        <v>2000</v>
+      </c>
+      <c r="D93" s="44">
+        <v>739451</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B94" t="s">
+        <v>181</v>
+      </c>
+      <c r="C94">
+        <v>2001</v>
+      </c>
+      <c r="D94" s="44">
+        <v>732735</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B95" t="s">
+        <v>181</v>
+      </c>
+      <c r="C95">
+        <v>2002</v>
+      </c>
+      <c r="D95" s="44">
+        <v>752523</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B96" t="s">
+        <v>181</v>
+      </c>
+      <c r="C96">
+        <v>2003</v>
+      </c>
+      <c r="D96" s="44">
+        <v>887782</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B97" t="s">
+        <v>181</v>
+      </c>
+      <c r="C97">
+        <v>2004</v>
+      </c>
+      <c r="D97" s="44">
+        <v>1018386</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B98" t="s">
+        <v>181</v>
+      </c>
+      <c r="C98">
+        <v>2005</v>
+      </c>
+      <c r="D98" s="44">
+        <v>1164179</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B99" t="s">
+        <v>181</v>
+      </c>
+      <c r="C99">
+        <v>2006</v>
+      </c>
+      <c r="D99" s="44">
+        <v>1310795</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B100" t="s">
+        <v>181</v>
+      </c>
+      <c r="C100">
+        <v>2007</v>
+      </c>
+      <c r="D100" s="44">
+        <v>1457873</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B101" t="s">
+        <v>181</v>
+      </c>
+      <c r="C101">
+        <v>2008</v>
+      </c>
+      <c r="D101" s="44">
+        <v>1542561</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B102" t="s">
+        <v>181</v>
+      </c>
+      <c r="C102">
+        <v>2009</v>
+      </c>
+      <c r="D102" s="44">
+        <v>1370839</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B103" t="s">
+        <v>182</v>
+      </c>
+      <c r="C103">
+        <v>2000</v>
+      </c>
+      <c r="D103" s="44">
+        <v>1198477</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B104" t="s">
+        <v>182</v>
+      </c>
+      <c r="C104">
+        <v>2001</v>
+      </c>
+      <c r="D104" s="44">
+        <v>1324814</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B105" t="s">
+        <v>182</v>
+      </c>
+      <c r="C105">
+        <v>2002</v>
+      </c>
+      <c r="D105" s="44">
+        <v>1453833</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B106" t="s">
+        <v>182</v>
+      </c>
+      <c r="C106">
+        <v>2003</v>
+      </c>
+      <c r="D106" s="44">
+        <v>1640961</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B107" t="s">
+        <v>182</v>
+      </c>
+      <c r="C107">
+        <v>2004</v>
+      </c>
+      <c r="D107" s="44">
+        <v>1931646</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B108" t="s">
+        <v>182</v>
+      </c>
+      <c r="C108">
+        <v>2005</v>
+      </c>
+      <c r="D108" s="44">
+        <v>2256919</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B109" t="s">
+        <v>182</v>
+      </c>
+      <c r="C109">
+        <v>2006</v>
+      </c>
+      <c r="D109" s="44">
+        <v>2712917</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B110" t="s">
+        <v>182</v>
+      </c>
+      <c r="C110">
+        <v>2007</v>
+      </c>
+      <c r="D110" s="44">
+        <v>3494235</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B111" t="s">
+        <v>182</v>
+      </c>
+      <c r="C111">
+        <v>2008</v>
+      </c>
+      <c r="D111" s="44">
+        <v>4519951</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B112" t="s">
+        <v>182</v>
+      </c>
+      <c r="C112">
+        <v>2009</v>
+      </c>
+      <c r="D112" s="44">
+        <v>4990526</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B113" t="s">
+        <v>183</v>
+      </c>
+      <c r="C113">
+        <v>2000</v>
+      </c>
+      <c r="D113" s="44">
+        <v>692029</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B114" t="s">
+        <v>183</v>
+      </c>
+      <c r="C114">
+        <v>2001</v>
+      </c>
+      <c r="D114" s="44">
+        <v>733453</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B115" t="s">
+        <v>183</v>
+      </c>
+      <c r="C115">
+        <v>2002</v>
+      </c>
+      <c r="D115" s="44">
+        <v>750450</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B116" t="s">
+        <v>183</v>
+      </c>
+      <c r="C116">
+        <v>2003</v>
+      </c>
+      <c r="D116" s="44">
+        <v>722182</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B117" t="s">
+        <v>183</v>
+      </c>
+      <c r="C117">
+        <v>2004</v>
+      </c>
+      <c r="D117" s="44">
+        <v>774591</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B118" t="s">
+        <v>183</v>
+      </c>
+      <c r="C118">
+        <v>2005</v>
+      </c>
+      <c r="D118" s="44">
+        <v>869718</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B119" t="s">
+        <v>183</v>
+      </c>
+      <c r="C119">
+        <v>2006</v>
+      </c>
+      <c r="D119" s="44">
+        <v>965774</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B120" t="s">
+        <v>183</v>
+      </c>
+      <c r="C120">
+        <v>2007</v>
+      </c>
+      <c r="D120" s="44">
+        <v>1042687</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B121" t="s">
+        <v>183</v>
+      </c>
+      <c r="C121">
+        <v>2008</v>
+      </c>
+      <c r="D121" s="44">
+        <v>1100673</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B122" t="s">
+        <v>183</v>
+      </c>
+      <c r="C122">
+        <v>2009</v>
+      </c>
+      <c r="D122" s="44">
+        <v>894566</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B123" t="s">
+        <v>184</v>
+      </c>
+      <c r="C123">
+        <v>2000</v>
+      </c>
+      <c r="D123" s="44">
+        <v>386204</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B124" t="s">
+        <v>184</v>
+      </c>
+      <c r="C124">
+        <v>2001</v>
+      </c>
+      <c r="D124" s="44">
+        <v>400998</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B125" t="s">
+        <v>184</v>
+      </c>
+      <c r="C125">
+        <v>2002</v>
+      </c>
+      <c r="D125" s="44">
+        <v>439357</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B126" t="s">
+        <v>184</v>
+      </c>
+      <c r="C126">
+        <v>2003</v>
+      </c>
+      <c r="D126" s="44">
+        <v>539343</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B127" t="s">
+        <v>184</v>
+      </c>
+      <c r="C127">
+        <v>2004</v>
+      </c>
+      <c r="D127" s="44">
+        <v>610691</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B128" t="s">
+        <v>184</v>
+      </c>
+      <c r="C128">
+        <v>2005</v>
+      </c>
+      <c r="D128" s="44">
+        <v>639579</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B129" t="s">
+        <v>184</v>
+      </c>
+      <c r="C129">
+        <v>2006</v>
+      </c>
+      <c r="D129" s="44">
+        <v>678321</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B130" t="s">
+        <v>184</v>
+      </c>
+      <c r="C130">
+        <v>2007</v>
+      </c>
+      <c r="D130" s="44">
+        <v>783692</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B131" t="s">
+        <v>184</v>
+      </c>
+      <c r="C131">
+        <v>2008</v>
+      </c>
+      <c r="D131" s="44">
+        <v>874906</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B132" t="s">
+        <v>184</v>
+      </c>
+      <c r="C132">
+        <v>2009</v>
+      </c>
+      <c r="D132" s="44">
+        <v>798400</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B133" t="s">
+        <v>185</v>
+      </c>
+      <c r="C133">
+        <v>2000</v>
+      </c>
+      <c r="D133" s="44">
+        <v>171263</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B134" t="s">
+        <v>185</v>
+      </c>
+      <c r="C134">
+        <v>2001</v>
+      </c>
+      <c r="D134" s="44">
+        <v>190421</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B135" t="s">
+        <v>185</v>
+      </c>
+      <c r="C135">
+        <v>2002</v>
+      </c>
+      <c r="D135" s="44">
+        <v>198205</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B136" t="s">
+        <v>185</v>
+      </c>
+      <c r="C136">
+        <v>2003</v>
+      </c>
+      <c r="D136" s="44">
+        <v>216811</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B137" t="s">
+        <v>185</v>
+      </c>
+      <c r="C137">
+        <v>2004</v>
+      </c>
+      <c r="D137" s="44">
+        <v>253021</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B138" t="s">
+        <v>185</v>
+      </c>
+      <c r="C138">
+        <v>2005</v>
+      </c>
+      <c r="D138" s="44">
+        <v>303976</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B139" t="s">
+        <v>185</v>
+      </c>
+      <c r="C139">
+        <v>2006</v>
+      </c>
+      <c r="D139" s="44">
+        <v>341670</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B140" t="s">
+        <v>185</v>
+      </c>
+      <c r="C140">
+        <v>2007</v>
+      </c>
+      <c r="D140" s="44">
+        <v>425321</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B141" t="s">
+        <v>185</v>
+      </c>
+      <c r="C141">
+        <v>2008</v>
+      </c>
+      <c r="D141" s="44">
+        <v>529432</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B142" t="s">
+        <v>185</v>
+      </c>
+      <c r="C142">
+        <v>2009</v>
+      </c>
+      <c r="D142" s="44">
+        <v>431457</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B143" t="s">
+        <v>186</v>
+      </c>
+      <c r="C143">
+        <v>2000</v>
+      </c>
+      <c r="D143" s="44">
+        <v>259702</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B144" t="s">
+        <v>186</v>
+      </c>
+      <c r="C144">
+        <v>2001</v>
+      </c>
+      <c r="D144" s="44">
+        <v>306583</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B145" t="s">
+        <v>186</v>
+      </c>
+      <c r="C145">
+        <v>2002</v>
+      </c>
+      <c r="D145" s="44">
+        <v>345125</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B146" t="s">
+        <v>186</v>
+      </c>
+      <c r="C146">
+        <v>2003</v>
+      </c>
+      <c r="D146" s="44">
+        <v>430289</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B147" t="s">
+        <v>186</v>
+      </c>
+      <c r="C147">
+        <v>2004</v>
+      </c>
+      <c r="D147" s="44">
+        <v>591177</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B148" t="s">
+        <v>186</v>
+      </c>
+      <c r="C148">
+        <v>2005</v>
+      </c>
+      <c r="D148" s="44">
+        <v>763704</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B149" t="s">
+        <v>186</v>
+      </c>
+      <c r="C149">
+        <v>2006</v>
+      </c>
+      <c r="D149" s="44">
+        <v>989932</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B150" t="s">
+        <v>186</v>
+      </c>
+      <c r="C150">
+        <v>2007</v>
+      </c>
+      <c r="D150" s="44">
+        <v>1299703</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B151" t="s">
+        <v>186</v>
+      </c>
+      <c r="C151">
+        <v>2008</v>
+      </c>
+      <c r="D151" s="44">
+        <v>1660846</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B152" t="s">
+        <v>186</v>
+      </c>
+      <c r="C152">
+        <v>2009</v>
+      </c>
+      <c r="D152" s="44">
+        <v>1222645</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B153" t="s">
+        <v>187</v>
+      </c>
+      <c r="C153">
+        <v>2000</v>
+      </c>
+      <c r="D153" s="44">
+        <v>10289725</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B154" t="s">
+        <v>187</v>
+      </c>
+      <c r="C154">
+        <v>2001</v>
+      </c>
+      <c r="D154" s="44">
+        <v>10625275</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B155" t="s">
+        <v>187</v>
+      </c>
+      <c r="C155">
+        <v>2002</v>
+      </c>
+      <c r="D155" s="44">
+        <v>10980200</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B156" t="s">
+        <v>187</v>
+      </c>
+      <c r="C156">
+        <v>2003</v>
+      </c>
+      <c r="D156" s="44">
+        <v>11512275</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B157" t="s">
+        <v>187</v>
+      </c>
+      <c r="C157">
+        <v>2004</v>
+      </c>
+      <c r="D157" s="44">
+        <v>12277025</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B158" t="s">
+        <v>187</v>
+      </c>
+      <c r="C158">
+        <v>2005</v>
+      </c>
+      <c r="D158" s="44">
+        <v>13095425</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B159" t="s">
+        <v>187</v>
+      </c>
+      <c r="C159">
+        <v>2006</v>
+      </c>
+      <c r="D159" s="44">
+        <v>13857900</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B160" t="s">
+        <v>187</v>
+      </c>
+      <c r="C160">
+        <v>2007</v>
+      </c>
+      <c r="D160" s="44">
+        <v>14480350</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B161" t="s">
+        <v>187</v>
+      </c>
+      <c r="C161">
+        <v>2008</v>
+      </c>
+      <c r="D161" s="44">
+        <v>14720250</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B162" t="s">
+        <v>187</v>
+      </c>
+      <c r="C162">
+        <v>2009</v>
+      </c>
+      <c r="D162" s="44">
+        <v>14417950</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B163" t="s">
+        <v>188</v>
+      </c>
+      <c r="C163">
+        <v>2000</v>
+      </c>
+      <c r="D163" s="44">
+        <v>266560</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B164" t="s">
+        <v>188</v>
+      </c>
+      <c r="C164">
+        <v>2001</v>
+      </c>
+      <c r="D164" s="44">
+        <v>196007</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B165" t="s">
+        <v>188</v>
+      </c>
+      <c r="C165">
+        <v>2002</v>
+      </c>
+      <c r="D165" s="44">
+        <v>232530</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B166" t="s">
+        <v>188</v>
+      </c>
+      <c r="C166">
+        <v>2003</v>
+      </c>
+      <c r="D166" s="44">
+        <v>303008</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B167" t="s">
+        <v>188</v>
+      </c>
+      <c r="C167">
+        <v>2004</v>
+      </c>
+      <c r="D167" s="44">
+        <v>392156</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B168" t="s">
+        <v>188</v>
+      </c>
+      <c r="C168">
+        <v>2005</v>
+      </c>
+      <c r="D168" s="44">
+        <v>482986</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B169" t="s">
+        <v>188</v>
+      </c>
+      <c r="C169">
+        <v>2006</v>
+      </c>
+      <c r="D169" s="44">
+        <v>530917</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B170" t="s">
+        <v>188</v>
+      </c>
+      <c r="C170">
+        <v>2007</v>
+      </c>
+      <c r="D170" s="44">
+        <v>647140</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B171" t="s">
+        <v>188</v>
+      </c>
+      <c r="C171">
+        <v>2008</v>
+      </c>
+      <c r="D171" s="44">
+        <v>730325</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B172" t="s">
+        <v>188</v>
+      </c>
+      <c r="C172">
+        <v>2009</v>
+      </c>
+      <c r="D172" s="44">
+        <v>614570</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B173" t="s">
+        <v>189</v>
+      </c>
+      <c r="C173">
+        <v>2000</v>
+      </c>
+      <c r="D173" s="44">
+        <v>1330224</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B174" t="s">
+        <v>189</v>
+      </c>
+      <c r="C174">
+        <v>2001</v>
+      </c>
+      <c r="D174" s="44">
+        <v>1339453</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B175" t="s">
+        <v>189</v>
+      </c>
+      <c r="C175">
+        <v>2002</v>
+      </c>
+      <c r="D175" s="44">
+        <v>1457171</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B176" t="s">
+        <v>189</v>
+      </c>
+      <c r="C176">
+        <v>2003</v>
+      </c>
+      <c r="D176" s="44">
+        <v>1795644</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B177" t="s">
+        <v>189</v>
+      </c>
+      <c r="C177">
+        <v>2004</v>
+      </c>
+      <c r="D177" s="44">
+        <v>2058380</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B178" t="s">
+        <v>189</v>
+      </c>
+      <c r="C178">
+        <v>2005</v>
+      </c>
+      <c r="D178" s="44">
+        <v>2140266</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B179" t="s">
+        <v>189</v>
+      </c>
+      <c r="C179">
+        <v>2006</v>
+      </c>
+      <c r="D179" s="44">
+        <v>2257802</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B180" t="s">
+        <v>189</v>
+      </c>
+      <c r="C180">
+        <v>2007</v>
+      </c>
+      <c r="D180" s="44">
+        <v>2586104</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B181" t="s">
+        <v>189</v>
+      </c>
+      <c r="C181">
+        <v>2008</v>
+      </c>
+      <c r="D181" s="44">
+        <v>2845111</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B182" t="s">
+        <v>189</v>
+      </c>
+      <c r="C182">
+        <v>2009</v>
+      </c>
+      <c r="D182" s="44">
+        <v>2626486</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B183" t="s">
+        <v>190</v>
+      </c>
+      <c r="C183">
+        <v>2000</v>
+      </c>
+      <c r="D183" s="44">
+        <v>256036</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B184" t="s">
+        <v>190</v>
+      </c>
+      <c r="C184">
+        <v>2001</v>
+      </c>
+      <c r="D184" s="44">
+        <v>262645</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B185" t="s">
+        <v>190</v>
+      </c>
+      <c r="C185">
+        <v>2002</v>
+      </c>
+      <c r="D185" s="44">
+        <v>286657</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B186" t="s">
+        <v>190</v>
+      </c>
+      <c r="C186">
+        <v>2003</v>
+      </c>
+      <c r="D186" s="44">
+        <v>334587</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B187" t="s">
+        <v>190</v>
+      </c>
+      <c r="C187">
+        <v>2004</v>
+      </c>
+      <c r="D187" s="44">
+        <v>374226</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B188" t="s">
+        <v>190</v>
+      </c>
+      <c r="C188">
+        <v>2005</v>
+      </c>
+      <c r="D188" s="44">
+        <v>384755</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B189" t="s">
+        <v>190</v>
+      </c>
+      <c r="C189">
+        <v>2006</v>
+      </c>
+      <c r="D189" s="44">
+        <v>405183</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B190" t="s">
+        <v>190</v>
+      </c>
+      <c r="C190">
+        <v>2007</v>
+      </c>
+      <c r="D190" s="44">
+        <v>450530</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B191" t="s">
+        <v>190</v>
+      </c>
+      <c r="C191">
+        <v>2008</v>
+      </c>
+      <c r="D191" s="44">
+        <v>524289</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B192" t="s">
+        <v>190</v>
+      </c>
+      <c r="C192">
+        <v>2009</v>
+      </c>
+      <c r="D192" s="44">
+        <v>509466</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B193" t="s">
+        <v>191</v>
+      </c>
+      <c r="C193">
+        <v>2000</v>
+      </c>
+      <c r="D193" s="44">
+        <v>533385</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B194" t="s">
+        <v>191</v>
+      </c>
+      <c r="C194">
+        <v>2001</v>
+      </c>
+      <c r="D194" s="44">
+        <v>504584</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B195" t="s">
+        <v>191</v>
+      </c>
+      <c r="C195">
+        <v>2002</v>
+      </c>
+      <c r="D195" s="44">
+        <v>575930</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B196" t="s">
+        <v>191</v>
+      </c>
+      <c r="C196">
+        <v>2003</v>
+      </c>
+      <c r="D196" s="44">
+        <v>643760</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B197" t="s">
+        <v>191</v>
+      </c>
+      <c r="C197">
+        <v>2004</v>
+      </c>
+      <c r="D197" s="44">
+        <v>721976</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B198" t="s">
+        <v>191</v>
+      </c>
+      <c r="C198">
+        <v>2005</v>
+      </c>
+      <c r="D198" s="44">
+        <v>844866</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B199" t="s">
+        <v>191</v>
+      </c>
+      <c r="C199">
+        <v>2006</v>
+      </c>
+      <c r="D199" s="44">
+        <v>951773</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B200" t="s">
+        <v>191</v>
+      </c>
+      <c r="C200">
+        <v>2007</v>
+      </c>
+      <c r="D200" s="44">
+        <v>1049239</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B201" t="s">
+        <v>191</v>
+      </c>
+      <c r="C201">
+        <v>2008</v>
+      </c>
+      <c r="D201" s="44">
+        <v>931405</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B202" t="s">
+        <v>191</v>
+      </c>
+      <c r="C202">
+        <v>2009</v>
+      </c>
+      <c r="D202" s="44">
+        <v>834060</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B203" t="s">
+        <v>192</v>
+      </c>
+      <c r="C203">
+        <v>2000</v>
+      </c>
+      <c r="D203" s="44">
+        <v>4731199</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B204" t="s">
+        <v>192</v>
+      </c>
+      <c r="C204">
+        <v>2001</v>
+      </c>
+      <c r="D204" s="44">
+        <v>4159859</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B205" t="s">
+        <v>192</v>
+      </c>
+      <c r="C205">
+        <v>2002</v>
+      </c>
+      <c r="D205" s="44">
+        <v>3980819</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B206" t="s">
+        <v>192</v>
+      </c>
+      <c r="C206">
+        <v>2003</v>
+      </c>
+      <c r="D206" s="44">
+        <v>4302940</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B207" t="s">
+        <v>192</v>
+      </c>
+      <c r="C207">
+        <v>2004</v>
+      </c>
+      <c r="D207" s="44">
+        <v>4655823</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B208" t="s">
+        <v>192</v>
+      </c>
+      <c r="C208">
+        <v>2005</v>
+      </c>
+      <c r="D208" s="44">
+        <v>4571867</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B209" t="s">
+        <v>192</v>
+      </c>
+      <c r="C209">
+        <v>2006</v>
+      </c>
+      <c r="D209" s="44">
+        <v>4356750</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B210" t="s">
+        <v>192</v>
+      </c>
+      <c r="C210">
+        <v>2007</v>
+      </c>
+      <c r="D210" s="44">
+        <v>4356347</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B211" t="s">
+        <v>192</v>
+      </c>
+      <c r="C211">
+        <v>2008</v>
+      </c>
+      <c r="D211" s="44">
+        <v>4849185</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B212" t="s">
+        <v>192</v>
+      </c>
+      <c r="C212">
+        <v>2009</v>
+      </c>
+      <c r="D212" s="44">
+        <v>5035141</v>
       </c>
     </row>
   </sheetData>
@@ -9842,8 +9840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96140088-8E01-4035-9FE5-81249E8113CB}">
   <dimension ref="B2:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="46.5" x14ac:dyDescent="0.7"/>
@@ -9858,19 +9856,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.7">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="55" t="s">
         <v>213</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="55" t="s">
         <v>214</v>
       </c>
     </row>
@@ -9884,7 +9882,7 @@
       <c r="D3" t="s">
         <v>190</v>
       </c>
-      <c r="E3" s="60">
+      <c r="E3" s="54">
         <v>1.289699074074074E-3</v>
       </c>
       <c r="F3" t="s">
@@ -9893,7 +9891,7 @@
       <c r="H3" t="s">
         <v>166</v>
       </c>
-      <c r="I3" s="61" t="s">
+      <c r="I3" s="49" t="s">
         <v>180</v>
       </c>
     </row>
@@ -9907,7 +9905,7 @@
       <c r="D4" t="s">
         <v>190</v>
       </c>
-      <c r="E4" s="60">
+      <c r="E4" s="54">
         <v>1.2971064814814815E-3</v>
       </c>
       <c r="F4" t="s">
@@ -9916,7 +9914,7 @@
       <c r="H4" t="s">
         <v>257</v>
       </c>
-      <c r="I4" s="61" t="s">
+      <c r="I4" s="49" t="s">
         <v>259</v>
       </c>
     </row>
@@ -9930,7 +9928,7 @@
       <c r="D5" t="s">
         <v>236</v>
       </c>
-      <c r="E5" s="60">
+      <c r="E5" s="54">
         <v>1.3009259259259259E-3</v>
       </c>
       <c r="F5" t="s">
@@ -9939,7 +9937,7 @@
       <c r="H5" t="s">
         <v>214</v>
       </c>
-      <c r="I5" s="61" t="s">
+      <c r="I5" s="49" t="s">
         <v>238</v>
       </c>
     </row>
@@ -9953,7 +9951,7 @@
       <c r="D6" t="s">
         <v>179</v>
       </c>
-      <c r="E6" s="60">
+      <c r="E6" s="54">
         <v>1.2646990740740741E-3</v>
       </c>
       <c r="F6" t="s">
@@ -9970,7 +9968,7 @@
       <c r="D7" t="s">
         <v>180</v>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="54">
         <v>1.2152777777777778E-3</v>
       </c>
       <c r="F7" t="s">
@@ -9979,7 +9977,7 @@
       <c r="H7" t="s">
         <v>258</v>
       </c>
-      <c r="I7" s="65">
+      <c r="I7" s="56">
         <f>AVERAGEIFS(E3:E21, D3:D21, I3, B3:B21, "*"&amp;I4, F3:F21, I5)</f>
         <v>1.7049768518518518E-3</v>
       </c>
@@ -9994,7 +9992,7 @@
       <c r="D8" t="s">
         <v>180</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="54">
         <v>1.276388888888889E-3</v>
       </c>
       <c r="F8" t="s">
@@ -10011,7 +10009,7 @@
       <c r="D9" t="s">
         <v>180</v>
       </c>
-      <c r="E9" s="60">
+      <c r="E9" s="54">
         <v>1.2766203703703705E-3</v>
       </c>
       <c r="F9" t="s">
@@ -10032,7 +10030,7 @@
       <c r="D10" t="s">
         <v>180</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="54">
         <v>2.1946759259259259E-3</v>
       </c>
       <c r="F10" t="s">
@@ -10041,7 +10039,7 @@
       <c r="H10" t="s">
         <v>260</v>
       </c>
-      <c r="I10" s="65">
+      <c r="I10" s="56">
         <f>SUMIFS(E3:E21, D3:D21, I3, B3:B21, "*"&amp;I4, F3:F21,I5)</f>
         <v>3.4099537037037037E-3</v>
       </c>
@@ -10056,7 +10054,7 @@
       <c r="D11" t="s">
         <v>190</v>
       </c>
-      <c r="E11" s="60">
+      <c r="E11" s="54">
         <v>2.2077546296296294E-3</v>
       </c>
       <c r="F11" t="s">
@@ -10080,7 +10078,7 @@
       <c r="D12" t="s">
         <v>190</v>
       </c>
-      <c r="E12" s="60">
+      <c r="E12" s="54">
         <v>2.2105324074074072E-3</v>
       </c>
       <c r="F12" t="s">
@@ -10089,25 +10087,25 @@
       <c r="H12" t="s">
         <v>261</v>
       </c>
-      <c r="I12" s="65">
+      <c r="I12" s="56">
         <f>IF(I11=0,"Значений нет",I10/I11)</f>
         <v>1.7049768518518518E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:9" s="53" customFormat="1" x14ac:dyDescent="0.7">
-      <c r="B13" s="53" t="s">
+    <row r="13" spans="2:9" s="48" customFormat="1" x14ac:dyDescent="0.7">
+      <c r="B13" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="E13" s="67">
+      <c r="E13" s="58">
         <v>1.1189814814814814E-3</v>
       </c>
-      <c r="F13" s="53" t="s">
+      <c r="F13" s="48" t="s">
         <v>238</v>
       </c>
     </row>
@@ -10121,7 +10119,7 @@
       <c r="D14" t="s">
         <v>236</v>
       </c>
-      <c r="E14" s="60">
+      <c r="E14" s="54">
         <v>1.1226851851851851E-3</v>
       </c>
       <c r="F14" t="s">
@@ -10138,7 +10136,7 @@
       <c r="D15" t="s">
         <v>237</v>
       </c>
-      <c r="E15" s="60">
+      <c r="E15" s="54">
         <v>1.1305555555555557E-3</v>
       </c>
       <c r="F15" t="s">
@@ -10155,7 +10153,7 @@
       <c r="D16" t="s">
         <v>237</v>
       </c>
-      <c r="E16" s="60">
+      <c r="E16" s="54">
         <v>1.0560185185185184E-3</v>
       </c>
       <c r="F16" t="s">
@@ -10172,7 +10170,7 @@
       <c r="D17" t="s">
         <v>189</v>
       </c>
-      <c r="E17" s="60">
+      <c r="E17" s="54">
         <v>1.0562499999999999E-3</v>
       </c>
       <c r="F17" t="s">
@@ -10189,27 +10187,27 @@
       <c r="D18" t="s">
         <v>189</v>
       </c>
-      <c r="E18" s="60">
+      <c r="E18" s="54">
         <v>1.0728009259259258E-3</v>
       </c>
       <c r="F18" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="19" spans="2:6" s="53" customFormat="1" x14ac:dyDescent="0.7">
-      <c r="B19" s="53" t="s">
+    <row r="19" spans="2:6" s="48" customFormat="1" x14ac:dyDescent="0.7">
+      <c r="B19" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="D19" s="53" t="s">
+      <c r="D19" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="E19" s="67">
+      <c r="E19" s="58">
         <v>1.0405092592592593E-3</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="48" t="s">
         <v>238</v>
       </c>
     </row>
@@ -10223,7 +10221,7 @@
       <c r="D20" t="s">
         <v>236</v>
       </c>
-      <c r="E20" s="60">
+      <c r="E20" s="54">
         <v>1.0503472222222223E-3</v>
       </c>
       <c r="F20" t="s">
@@ -10240,7 +10238,7 @@
       <c r="D21" t="s">
         <v>236</v>
       </c>
-      <c r="E21" s="60">
+      <c r="E21" s="54">
         <v>1.0688657407407407E-3</v>
       </c>
       <c r="F21" t="s">
@@ -10570,11 +10568,11 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.7">
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.7">
       <c r="B11" t="s">
@@ -10752,22 +10750,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.7">
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
     </row>
     <row r="2" spans="2:15" ht="103.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B2" s="22" t="s">
@@ -11666,17 +11664,17 @@
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.7">
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11704,15 +11702,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.7">
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
     </row>
     <row r="2" spans="2:14" ht="93" x14ac:dyDescent="0.7">
       <c r="B2" s="22" t="s">
@@ -12390,15 +12388,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.7">
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.7">
       <c r="B2" s="22" t="s">
